--- a/data/trans_orig/Q4502_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q4502_R-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>59843</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45732</v>
+        <v>47130</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>75473</v>
+        <v>75409</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1211246647086934</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09256343298023169</v>
+        <v>0.09539344065726633</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1527602091730921</v>
+        <v>0.1526306996639964</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>55</v>
@@ -764,19 +764,19 @@
         <v>54025</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>42182</v>
+        <v>41792</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>68815</v>
+        <v>69647</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1155652509265792</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09023083573058949</v>
+        <v>0.08939724757657368</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1472003587158689</v>
+        <v>0.1489812025806807</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>116</v>
@@ -785,19 +785,19 @@
         <v>113869</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>95644</v>
+        <v>93621</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>133679</v>
+        <v>134084</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1184217815486176</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09946851556018443</v>
+        <v>0.09736441827025277</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1390239554273271</v>
+        <v>0.1394452000077016</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>104828</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>88472</v>
+        <v>87743</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>124237</v>
+        <v>124434</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2121751185029973</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.179069273719154</v>
+        <v>0.1775952134540272</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2514597905142378</v>
+        <v>0.2518586150210897</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>79</v>
@@ -835,19 +835,19 @@
         <v>76975</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>60728</v>
+        <v>62554</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>93450</v>
+        <v>93182</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1646552392185201</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1299032873780273</v>
+        <v>0.1338087901083963</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1998986452158695</v>
+        <v>0.1993247788675485</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>186</v>
@@ -856,19 +856,19 @@
         <v>181803</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>159806</v>
+        <v>160673</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>208097</v>
+        <v>209280</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1890718406178233</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1661954465672482</v>
+        <v>0.1670971580818495</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2164178129436041</v>
+        <v>0.2176474806681251</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>171278</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>153558</v>
+        <v>148818</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>194566</v>
+        <v>190343</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.346671784316279</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3108056064870297</v>
+        <v>0.301211448469892</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3938074846676916</v>
+        <v>0.3852607679353363</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>141</v>
@@ -906,19 +906,19 @@
         <v>134797</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>117079</v>
+        <v>113579</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>156046</v>
+        <v>152413</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2883435208603727</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2504419646024217</v>
+        <v>0.242954410836557</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3337953808391653</v>
+        <v>0.3260253373570525</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>313</v>
@@ -927,19 +927,19 @@
         <v>306075</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>278782</v>
+        <v>279123</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>335918</v>
+        <v>334973</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3183136718910726</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2899286448542785</v>
+        <v>0.2902833357906204</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3493493885982876</v>
+        <v>0.3483665952707249</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>40409</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30339</v>
+        <v>29668</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52576</v>
+        <v>54695</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08178838877315935</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06140619136313856</v>
+        <v>0.06004873346951558</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1064145674935492</v>
+        <v>0.1107036389096623</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>66</v>
@@ -977,19 +977,19 @@
         <v>63510</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48587</v>
+        <v>50650</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79768</v>
+        <v>81180</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.135854057581079</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1039312479026303</v>
+        <v>0.1083456387119369</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1706299462014128</v>
+        <v>0.1736509156416069</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>108</v>
@@ -998,19 +998,19 @@
         <v>103919</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>85954</v>
+        <v>84563</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>123020</v>
+        <v>123185</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1080741072835003</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08939126164330828</v>
+        <v>0.08794443552310344</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1279389808119185</v>
+        <v>0.1281099554405941</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>117706</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>99267</v>
+        <v>98249</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>137434</v>
+        <v>135540</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2382400436988709</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2009184612748079</v>
+        <v>0.1988585424557389</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2781713712618634</v>
+        <v>0.2743360951652141</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>148</v>
@@ -1048,19 +1048,19 @@
         <v>138181</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>120737</v>
+        <v>121477</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>158020</v>
+        <v>157966</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2955819314134489</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2582676044484997</v>
+        <v>0.2598509273795295</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3380177363040145</v>
+        <v>0.337902897632989</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>265</v>
@@ -1069,19 +1069,19 @@
         <v>255887</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>228419</v>
+        <v>230306</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>282186</v>
+        <v>284951</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2661185986589862</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2375519753248437</v>
+        <v>0.2395141719188557</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2934691154300409</v>
+        <v>0.2963443219741203</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>88291</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72146</v>
+        <v>70224</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>107622</v>
+        <v>106819</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1200442856845741</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09809208660914463</v>
+        <v>0.09547915492433004</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1463276389846442</v>
+        <v>0.1452353293274046</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>81</v>
@@ -1194,19 +1194,19 @@
         <v>86124</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>70286</v>
+        <v>69163</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>105781</v>
+        <v>104098</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1376897473202452</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1123686440771256</v>
+        <v>0.1105738033441643</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1691156325884739</v>
+        <v>0.1664256402195474</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>163</v>
@@ -1215,19 +1215,19 @@
         <v>174415</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>151998</v>
+        <v>148611</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>203776</v>
+        <v>201197</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1281539621589334</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1116828021972489</v>
+        <v>0.1091940057322646</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.149726964490087</v>
+        <v>0.147832478645932</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>180917</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>158266</v>
+        <v>155831</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>206562</v>
+        <v>206550</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2459822131719289</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2151842545191178</v>
+        <v>0.2118737165997135</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2808504846763361</v>
+        <v>0.2808336591419735</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>105</v>
@@ -1265,19 +1265,19 @@
         <v>114658</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>95945</v>
+        <v>96524</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>134484</v>
+        <v>136737</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1833080424858226</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1533900607611103</v>
+        <v>0.1543171992929473</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2150039186690264</v>
+        <v>0.2186062788872082</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>280</v>
@@ -1286,19 +1286,19 @@
         <v>295575</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>265770</v>
+        <v>266565</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>328132</v>
+        <v>328854</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2171777954662674</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1952778419719368</v>
+        <v>0.195862217839918</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2410994768781058</v>
+        <v>0.2416297210000131</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>248921</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>224766</v>
+        <v>222637</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>276038</v>
+        <v>276170</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3384427046843808</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3056013990696359</v>
+        <v>0.3027065588419129</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3753126205129121</v>
+        <v>0.3754918051522315</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>180</v>
@@ -1336,19 +1336,19 @@
         <v>192240</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>167401</v>
+        <v>168683</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>215564</v>
+        <v>214509</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.307341672010807</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2676295195509543</v>
+        <v>0.2696791159596524</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3446306359501646</v>
+        <v>0.3429427997966524</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>421</v>
@@ -1357,19 +1357,19 @@
         <v>441161</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>409083</v>
+        <v>407583</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>479094</v>
+        <v>475580</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3241489832613443</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3005794622517572</v>
+        <v>0.2994770144390924</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.352020660506959</v>
+        <v>0.3494385622527658</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>62181</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48203</v>
+        <v>48558</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80643</v>
+        <v>78049</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08454350079721172</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06553836319122351</v>
+        <v>0.06602205689354995</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1096452705804369</v>
+        <v>0.1061181750068537</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>62</v>
@@ -1407,19 +1407,19 @@
         <v>64454</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50262</v>
+        <v>48676</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79845</v>
+        <v>80166</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1030450734384691</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08035546861805971</v>
+        <v>0.07782030945876378</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1276515011247807</v>
+        <v>0.1281635610124941</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>122</v>
@@ -1428,19 +1428,19 @@
         <v>126635</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>107457</v>
+        <v>105638</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>149635</v>
+        <v>149758</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09304663726852615</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07895523717861894</v>
+        <v>0.07761896340959358</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.10994656362637</v>
+        <v>0.1100368008921401</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>155179</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>132614</v>
+        <v>131980</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>179740</v>
+        <v>178781</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2109872956619045</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.180306909727563</v>
+        <v>0.1794447401006971</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2443816330389318</v>
+        <v>0.2430776416816147</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>163</v>
@@ -1478,19 +1478,19 @@
         <v>168017</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>146337</v>
+        <v>146530</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>189845</v>
+        <v>192449</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2686154647446561</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2339538067697148</v>
+        <v>0.2342622192942884</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3035120180852272</v>
+        <v>0.3076755318004228</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>308</v>
@@ -1499,19 +1499,19 @@
         <v>323196</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>292772</v>
+        <v>293184</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>353783</v>
+        <v>354091</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2374726218449288</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2151182752608108</v>
+        <v>0.2154205811036599</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2599466685063573</v>
+        <v>0.2601734837465162</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>116893</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>99263</v>
+        <v>97206</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>137628</v>
+        <v>138677</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1833181800781878</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1556696940748718</v>
+        <v>0.1524450301047379</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2158368601804346</v>
+        <v>0.2174818727360321</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>113</v>
@@ -1624,19 +1624,19 @@
         <v>118544</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>100601</v>
+        <v>100052</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>139151</v>
+        <v>140581</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1721540632654614</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1460958780825905</v>
+        <v>0.1452994736854943</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2020803342185589</v>
+        <v>0.2041563110723671</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>225</v>
@@ -1645,19 +1645,19 @@
         <v>235437</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>209118</v>
+        <v>208984</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>263145</v>
+        <v>264142</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1775217023534946</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1576768172713664</v>
+        <v>0.1575763181787977</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1984137709976497</v>
+        <v>0.1991655550254547</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>169056</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>147041</v>
+        <v>145329</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>192745</v>
+        <v>190725</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2651245012574069</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2305994181590829</v>
+        <v>0.2279142964967796</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3022738508891568</v>
+        <v>0.299105782798073</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>123</v>
@@ -1695,19 +1695,19 @@
         <v>128223</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>109155</v>
+        <v>108821</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>150082</v>
+        <v>151042</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1862107096028594</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1585192472939135</v>
+        <v>0.1580334365503235</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2179539849321467</v>
+        <v>0.2193484863518411</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>284</v>
@@ -1716,19 +1716,19 @@
         <v>297280</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>266604</v>
+        <v>267463</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>333671</v>
+        <v>327874</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2241519780233942</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2010219055149594</v>
+        <v>0.2016698173992786</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2515913278870641</v>
+        <v>0.2472204704243456</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>202895</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>180829</v>
+        <v>180561</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>227045</v>
+        <v>226898</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.318191743361142</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2835865998506991</v>
+        <v>0.2831674656482931</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3560662663961922</v>
+        <v>0.3558351993823259</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>226</v>
@@ -1766,19 +1766,19 @@
         <v>237718</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>212793</v>
+        <v>213307</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>264146</v>
+        <v>266166</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3452226202163861</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3090265043033675</v>
+        <v>0.3097718913449876</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3836020841722358</v>
+        <v>0.3865361341290602</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>423</v>
@@ -1787,19 +1787,19 @@
         <v>440613</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>405644</v>
+        <v>405375</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>477056</v>
+        <v>473618</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3322263399350274</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3058594483482931</v>
+        <v>0.3056569689573164</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3597046014913335</v>
+        <v>0.3571123419710966</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>37055</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26279</v>
+        <v>26616</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>51128</v>
+        <v>51943</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0581112515900061</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04121289111240489</v>
+        <v>0.0417410442145532</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08018156836347291</v>
+        <v>0.08146059271334945</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -1837,19 +1837,19 @@
         <v>54719</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42352</v>
+        <v>40768</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69654</v>
+        <v>69786</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07946518460512371</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06150510349481909</v>
+        <v>0.05920450167426417</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1011545294849058</v>
+        <v>0.1013456096033068</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>89</v>
@@ -1858,19 +1858,19 @@
         <v>91774</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>74669</v>
+        <v>75698</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>112585</v>
+        <v>113614</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06919834420405159</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05630139612260642</v>
+        <v>0.05707699692759406</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08489000744344175</v>
+        <v>0.08566593523610785</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>111751</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>92243</v>
+        <v>92820</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>132929</v>
+        <v>132653</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1752543237132572</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1446610776445432</v>
+        <v>0.145565744476125</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2084666836918135</v>
+        <v>0.2080341415465201</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>143</v>
@@ -1908,19 +1908,19 @@
         <v>149388</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>129727</v>
+        <v>128744</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>172557</v>
+        <v>173555</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2169474223101694</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1883938608482231</v>
+        <v>0.1869660565769926</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2505937256071358</v>
+        <v>0.2520427530460216</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>248</v>
@@ -1929,19 +1929,19 @@
         <v>261139</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>229553</v>
+        <v>230902</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>289610</v>
+        <v>289357</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1969016354840322</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1730852558413035</v>
+        <v>0.1741023449964251</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2183690967817044</v>
+        <v>0.2181780722817681</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>126876</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>107077</v>
+        <v>108051</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>145866</v>
+        <v>149032</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2449202470758345</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2067013731724053</v>
+        <v>0.2085809795083531</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2815782977143387</v>
+        <v>0.2876904539112199</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>90</v>
@@ -2054,19 +2054,19 @@
         <v>93516</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>75790</v>
+        <v>78052</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>110501</v>
+        <v>112460</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1817265204895738</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1472805337518817</v>
+        <v>0.1516752137628428</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2147323176327344</v>
+        <v>0.2185385348211122</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>210</v>
@@ -2075,19 +2075,19 @@
         <v>220392</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>196452</v>
+        <v>194773</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>251846</v>
+        <v>247721</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2134283355760885</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1902443382125565</v>
+        <v>0.1886190084920014</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2438888087074253</v>
+        <v>0.23989383761299</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>136411</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>116501</v>
+        <v>114889</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>158911</v>
+        <v>158263</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2633276784743101</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2248919564420263</v>
+        <v>0.2217807085002402</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3067599777134495</v>
+        <v>0.3055092381404032</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>102</v>
@@ -2125,19 +2125,19 @@
         <v>107191</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>88296</v>
+        <v>89274</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>126391</v>
+        <v>126354</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2083000405045786</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1715813358239796</v>
+        <v>0.1734832445668683</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2456108142629801</v>
+        <v>0.245538975718754</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>228</v>
@@ -2146,19 +2146,19 @@
         <v>243602</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>216875</v>
+        <v>214502</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>276171</v>
+        <v>272108</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2359052490877891</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2100227922832021</v>
+        <v>0.2077245028708686</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.267445040992712</v>
+        <v>0.263509842327833</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>150573</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>130528</v>
+        <v>129073</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>172703</v>
+        <v>172397</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2906657518709443</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2519697975243211</v>
+        <v>0.2491615081966359</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3333847877964092</v>
+        <v>0.3327935212817588</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>152</v>
@@ -2196,19 +2196,19 @@
         <v>154731</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>134161</v>
+        <v>134885</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>175423</v>
+        <v>176830</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3006825212495586</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2607107529814132</v>
+        <v>0.2621172857359735</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3408920939901403</v>
+        <v>0.3436262032774179</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>292</v>
@@ -2217,19 +2217,19 @@
         <v>305304</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>274635</v>
+        <v>276165</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>335621</v>
+        <v>337307</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2956575007647858</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2659571575123637</v>
+        <v>0.2674392184564959</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3250164386635178</v>
+        <v>0.3266486602906896</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>31832</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21170</v>
+        <v>21921</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44602</v>
+        <v>45107</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06144924033181169</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04086564042969206</v>
+        <v>0.04231577361927583</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08609952379271141</v>
+        <v>0.08707514026254434</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -2267,19 +2267,19 @@
         <v>37426</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>26682</v>
+        <v>26289</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>51301</v>
+        <v>50928</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07272760267275016</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05184998998839791</v>
+        <v>0.05108609973165709</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09969217137158541</v>
+        <v>0.09896701333701328</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>64</v>
@@ -2288,19 +2288,19 @@
         <v>69258</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>54392</v>
+        <v>54756</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>86634</v>
+        <v>86878</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06706969046016548</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05267375437925068</v>
+        <v>0.05302602636852983</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08389635734229398</v>
+        <v>0.08413273750071501</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>72336</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>57555</v>
+        <v>57599</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>89944</v>
+        <v>90461</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1396370822470994</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1111035560524618</v>
+        <v>0.1111885423789678</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1736276679798747</v>
+        <v>0.1746243969335294</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>121</v>
@@ -2338,19 +2338,19 @@
         <v>121735</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>103105</v>
+        <v>104839</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>141547</v>
+        <v>142795</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2365633150835388</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.200358955553232</v>
+        <v>0.2037285914224098</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2750628797495659</v>
+        <v>0.2774874063144722</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>190</v>
@@ -2359,19 +2359,19 @@
         <v>194071</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>171491</v>
+        <v>168832</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>220839</v>
+        <v>219427</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1879392241111712</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1660721730175402</v>
+        <v>0.1634978600814138</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2138612794227017</v>
+        <v>0.2124940329620439</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>114613</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>97648</v>
+        <v>96745</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>133385</v>
+        <v>130881</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2963807896435255</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2525094108923759</v>
+        <v>0.2501737505433312</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3449223747107877</v>
+        <v>0.3384477978619345</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>90</v>
@@ -2484,19 +2484,19 @@
         <v>92005</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>74790</v>
+        <v>75626</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>108960</v>
+        <v>109436</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2289253373984189</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1860901129108752</v>
+        <v>0.1881709490962903</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2711126985099119</v>
+        <v>0.2722947502018229</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>205</v>
@@ -2505,19 +2505,19 @@
         <v>206619</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>185791</v>
+        <v>184028</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>232052</v>
+        <v>234669</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2620033777391771</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2355925595943624</v>
+        <v>0.2333570405200387</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2942546886061908</v>
+        <v>0.2975719513263319</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>77181</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>62847</v>
+        <v>63334</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>93444</v>
+        <v>95115</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1995834132341921</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1625180502093138</v>
+        <v>0.1637757318079978</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2416392537661957</v>
+        <v>0.2459587607620454</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>86</v>
@@ -2555,19 +2555,19 @@
         <v>87534</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>70925</v>
+        <v>70824</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>103664</v>
+        <v>104658</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2178009497299587</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1764728362525477</v>
+        <v>0.1762222884074723</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2579343510860164</v>
+        <v>0.2604075929974148</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>168</v>
@@ -2576,19 +2576,19 @@
         <v>164715</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>143852</v>
+        <v>143445</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>188196</v>
+        <v>187443</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2088676406043066</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1824120065243816</v>
+        <v>0.1818957828918525</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2386426539543728</v>
+        <v>0.2376875285612728</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>109957</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>91193</v>
+        <v>93825</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>128983</v>
+        <v>127814</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2843408108359417</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2358170786892025</v>
+        <v>0.2426228995979461</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.333538549186499</v>
+        <v>0.3305164778280212</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>116</v>
@@ -2626,19 +2626,19 @@
         <v>119362</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>99632</v>
+        <v>102858</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>138743</v>
+        <v>139355</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2969927171985579</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2479015812743092</v>
+        <v>0.2559280974532492</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.345217326696753</v>
+        <v>0.3467397244268068</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>222</v>
@@ -2647,19 +2647,19 @@
         <v>229319</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>206228</v>
+        <v>205388</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>256041</v>
+        <v>255823</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.290788618713984</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2615080854624449</v>
+        <v>0.2604422016099075</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.324673405149545</v>
+        <v>0.3243973715460723</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>13481</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7728</v>
+        <v>7319</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>22303</v>
+        <v>21499</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03485954487949373</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01998521154480225</v>
+        <v>0.01892729978684157</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05767378196611976</v>
+        <v>0.05559531912795403</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>19</v>
@@ -2697,19 +2697,19 @@
         <v>18852</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>11988</v>
+        <v>12516</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>29717</v>
+        <v>28312</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04690660145415837</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02982750378147429</v>
+        <v>0.03114295616556209</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07394127625893651</v>
+        <v>0.0704445640272611</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>33</v>
@@ -2718,19 +2718,19 @@
         <v>32332</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>22924</v>
+        <v>22470</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>43218</v>
+        <v>44671</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04099910235510575</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02906912074374186</v>
+        <v>0.0284931995640925</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05480259686470219</v>
+        <v>0.05664553186199792</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>71478</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>56482</v>
+        <v>57149</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>85429</v>
+        <v>87454</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1848354414068469</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1460584485249857</v>
+        <v>0.1477818337498003</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2209111817327067</v>
+        <v>0.2261497251608864</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>83</v>
@@ -2768,19 +2768,19 @@
         <v>84148</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>68363</v>
+        <v>69560</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>101195</v>
+        <v>101540</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2093743942189061</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1700979766556265</v>
+        <v>0.1730781600765491</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2517909200989164</v>
+        <v>0.2526495001606254</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>158</v>
@@ -2789,19 +2789,19 @@
         <v>155625</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>131474</v>
+        <v>132127</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>177933</v>
+        <v>178022</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1973412605874265</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1667164075350749</v>
+        <v>0.1675442823457576</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2256280694118179</v>
+        <v>0.2257406848966745</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>109230</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>92948</v>
+        <v>92597</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>127462</v>
+        <v>125495</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3733316389718116</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3176809267575085</v>
+        <v>0.3164797494928345</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4356438855621864</v>
+        <v>0.4289214213797917</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>121</v>
@@ -2914,19 +2914,19 @@
         <v>110206</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>95482</v>
+        <v>95796</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>126622</v>
+        <v>126146</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3213611380616628</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2784262224868624</v>
+        <v>0.2793420422584298</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3692302237474825</v>
+        <v>0.3678420102256235</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>230</v>
@@ -2935,19 +2935,19 @@
         <v>219436</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>198074</v>
+        <v>197667</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>243485</v>
+        <v>243297</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3452876185452218</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3116731696951122</v>
+        <v>0.3110337647433977</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3831288257492643</v>
+        <v>0.3828337808683071</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>58082</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>44780</v>
+        <v>44420</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>71283</v>
+        <v>72594</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1985144150132718</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1530517138987078</v>
+        <v>0.1518202467097041</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2436344109110559</v>
+        <v>0.2481151502973238</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>55</v>
@@ -2985,19 +2985,19 @@
         <v>51853</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>40676</v>
+        <v>40740</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>67195</v>
+        <v>65683</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.151204751110282</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1186125416705041</v>
+        <v>0.1187969451150273</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1959415141533903</v>
+        <v>0.1915325426971894</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>116</v>
@@ -3006,19 +3006,19 @@
         <v>109935</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>91822</v>
+        <v>93417</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>129605</v>
+        <v>128839</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1729854484334739</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1444836010371924</v>
+        <v>0.1469938024239963</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2039362292301774</v>
+        <v>0.2027317034407504</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>50933</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>38171</v>
+        <v>39184</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>64019</v>
+        <v>64028</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1740807715631841</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1304609598907525</v>
+        <v>0.1339260371616699</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2188074602193419</v>
+        <v>0.2188357557154522</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>103</v>
@@ -3056,19 +3056,19 @@
         <v>94531</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>79376</v>
+        <v>80004</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>108900</v>
+        <v>110716</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2756532881565412</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2314619862077086</v>
+        <v>0.2332928555248708</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3175551744035084</v>
+        <v>0.3228502885205382</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>157</v>
@@ -3077,19 +3077,19 @@
         <v>145464</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>126759</v>
+        <v>126326</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>167878</v>
+        <v>168064</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2288907441483816</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1994587157311119</v>
+        <v>0.1987774499969059</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2641605099520818</v>
+        <v>0.2644524145926518</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>9087</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>4514</v>
+        <v>4390</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>16243</v>
+        <v>15376</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03105616186312855</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01542725437058486</v>
+        <v>0.01500405052556567</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.055517492027317</v>
+        <v>0.05255244074418863</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>12</v>
@@ -3127,19 +3127,19 @@
         <v>11414</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>5940</v>
+        <v>5810</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>19112</v>
+        <v>18151</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03328256979553838</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01732218055730956</v>
+        <v>0.01694139125730149</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05573108024268623</v>
+        <v>0.05292771845030905</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>22</v>
@@ -3148,19 +3148,19 @@
         <v>20500</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>12242</v>
+        <v>13270</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>29155</v>
+        <v>30349</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03225756320506232</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0192628531105868</v>
+        <v>0.02088129246792304</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04587577108141201</v>
+        <v>0.04775550856608072</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>65251</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>53046</v>
+        <v>51624</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>79956</v>
+        <v>80174</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.223017012588604</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1813034677077174</v>
+        <v>0.1764423738121025</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2732766856492032</v>
+        <v>0.2740230287669527</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>80</v>
@@ -3198,19 +3198,19 @@
         <v>74930</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>60540</v>
+        <v>60952</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>88535</v>
+        <v>89217</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2184982528759757</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1765367064621702</v>
+        <v>0.1777360179163381</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2581677655462857</v>
+        <v>0.2601588775488628</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>149</v>
@@ -3219,19 +3219,19 @@
         <v>140181</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>119706</v>
+        <v>121338</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>159767</v>
+        <v>160059</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2205786256678604</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1883607720625151</v>
+        <v>0.1909285378099227</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2513965889933617</v>
+        <v>0.2518571491450134</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>103621</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>88367</v>
+        <v>89387</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>117863</v>
+        <v>116537</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.4958250541878393</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.4228372270599259</v>
+        <v>0.4277146071870833</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5639722075825683</v>
+        <v>0.5576288228268782</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>110</v>
@@ -3344,19 +3344,19 @@
         <v>125154</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>107346</v>
+        <v>106234</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>144245</v>
+        <v>144044</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3762022312203776</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3226737553961732</v>
+        <v>0.3193305748796285</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4335873383284296</v>
+        <v>0.4329841835200199</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>219</v>
@@ -3365,19 +3365,19 @@
         <v>228775</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>204217</v>
+        <v>206082</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>250929</v>
+        <v>251715</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.4223556086083381</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3770182621685252</v>
+        <v>0.3804615358575025</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4632567140816912</v>
+        <v>0.4647063539731877</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>24546</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>16637</v>
+        <v>17122</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>36245</v>
+        <v>36186</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1174520264070046</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0796075000642307</v>
+        <v>0.08192874236378773</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1734332788359326</v>
+        <v>0.1731514936661449</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>41</v>
@@ -3415,19 +3415,19 @@
         <v>47167</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>35021</v>
+        <v>35580</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>62216</v>
+        <v>64355</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1417813698963005</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1052701708049321</v>
+        <v>0.1069511071711673</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1870161493488569</v>
+        <v>0.1934445965637123</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>67</v>
@@ -3436,19 +3436,19 @@
         <v>71713</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>57370</v>
+        <v>57402</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>88494</v>
+        <v>89723</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1323945209338059</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1059151118132785</v>
+        <v>0.1059737674131981</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1633736448827283</v>
+        <v>0.1656441285674169</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>32681</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>23356</v>
+        <v>23137</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>43979</v>
+        <v>43693</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1563769530955267</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1117567674840015</v>
+        <v>0.1107114472405265</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2104394565421289</v>
+        <v>0.2090700859166808</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>50</v>
@@ -3486,19 +3486,19 @@
         <v>58127</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>44779</v>
+        <v>45269</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>74601</v>
+        <v>75025</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1747257199703515</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1346031022541121</v>
+        <v>0.1360754971073321</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2242451864992792</v>
+        <v>0.2255196147149016</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>83</v>
@@ -3507,19 +3507,19 @@
         <v>90808</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>75513</v>
+        <v>72724</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>112369</v>
+        <v>109815</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.167646322066426</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1394096441312349</v>
+        <v>0.1342607267110572</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2074517824609811</v>
+        <v>0.202735946209715</v>
       </c>
     </row>
     <row r="43">
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>7250</v>
+        <v>5922</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.008552573850411556</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03468879507347528</v>
+        <v>0.02833766317230287</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>6</v>
@@ -3557,19 +3557,19 @@
         <v>7012</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>2343</v>
+        <v>2385</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>14113</v>
+        <v>14009</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02107639341724363</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.007041722456628208</v>
+        <v>0.007169445722161576</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.04242384451057502</v>
+        <v>0.04210891676840497</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>8</v>
@@ -3578,19 +3578,19 @@
         <v>8799</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>4368</v>
+        <v>4280</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>17998</v>
+        <v>16076</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01624440102258204</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.00806475979609008</v>
+        <v>0.007901694667255918</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03322783807303137</v>
+        <v>0.0296789571283404</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>46352</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>34361</v>
+        <v>34797</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>58745</v>
+        <v>60637</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2217933924592178</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1644172006545794</v>
+        <v>0.1665053398013382</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2810950791655655</v>
+        <v>0.290146221776373</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>82</v>
@@ -3628,19 +3628,19 @@
         <v>95217</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>78264</v>
+        <v>78319</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>112186</v>
+        <v>114015</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2862142854957268</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2352548231271056</v>
+        <v>0.2354211361189403</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3372212623384073</v>
+        <v>0.3427211836559299</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>131</v>
@@ -3649,19 +3649,19 @@
         <v>141569</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>120715</v>
+        <v>121714</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>163136</v>
+        <v>163833</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2613591473688479</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2228592036579692</v>
+        <v>0.2247033848020943</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3011754872579547</v>
+        <v>0.3024625612175826</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>719368</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>670302</v>
+        <v>672112</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>768319</v>
+        <v>766449</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2197542703176497</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2047653240257098</v>
+        <v>0.205318285329975</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2347079855686769</v>
+        <v>0.2341366698258588</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>660</v>
@@ -3774,19 +3774,19 @@
         <v>679575</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>638709</v>
+        <v>631871</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>735157</v>
+        <v>728040</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2014338547165477</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1893205713201033</v>
+        <v>0.1872939740004</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2179089189347768</v>
+        <v>0.2157993503639103</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1368</v>
@@ -3795,19 +3795,19 @@
         <v>1398943</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1334147</v>
+        <v>1331336</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1463410</v>
+        <v>1468254</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2104560143211065</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2007081434571537</v>
+        <v>0.2002853211656812</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2201543368124636</v>
+        <v>0.2208831620302016</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>751022</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>702552</v>
+        <v>710045</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>796765</v>
+        <v>804203</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2294239506559946</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2146171191945775</v>
+        <v>0.2169062772625466</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2433977888852922</v>
+        <v>0.2456699049846511</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>591</v>
@@ -3845,19 +3845,19 @@
         <v>613602</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>571073</v>
+        <v>572127</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>655549</v>
+        <v>660790</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1818787684894895</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1692727376425231</v>
+        <v>0.1695848996403672</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1943124141285025</v>
+        <v>0.1958656780986146</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1329</v>
@@ -3866,19 +3866,19 @@
         <v>1364624</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1301895</v>
+        <v>1294819</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1433113</v>
+        <v>1428991</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2052930965961199</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1958562060756484</v>
+        <v>0.1947917436893</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2155965520439093</v>
+        <v>0.2149764668536517</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>967238</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>919876</v>
+        <v>917082</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1025439</v>
+        <v>1024005</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2954742144471698</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2810057781252002</v>
+        <v>0.2801524624271582</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3132534325914625</v>
+        <v>0.3128155012644703</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>968</v>
@@ -3916,19 +3916,19 @@
         <v>991507</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>939441</v>
+        <v>945163</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1041802</v>
+        <v>1045954</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2938940028381642</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2784612832510341</v>
+        <v>0.2801572838130407</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3088020044061979</v>
+        <v>0.3100328977766597</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1911</v>
@@ -3937,19 +3937,19 @@
         <v>1958745</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1880586</v>
+        <v>1886068</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>2030372</v>
+        <v>2029398</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2946722014148694</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2829139981476082</v>
+        <v>0.283738750394445</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3054477014097673</v>
+        <v>0.3053012090264733</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>195831</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>166972</v>
+        <v>170789</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>223070</v>
+        <v>225640</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.05982291734037309</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.0510069865144559</v>
+        <v>0.05217305116039907</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.06814396566331163</v>
+        <v>0.06892894309014123</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>253</v>
@@ -3987,19 +3987,19 @@
         <v>257386</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>231005</v>
+        <v>225513</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>288128</v>
+        <v>288241</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.07629227196449773</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.0684726843635946</v>
+        <v>0.06684453320307548</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.0854043268350012</v>
+        <v>0.08543785459948119</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>446</v>
@@ -4008,19 +4008,19 @@
         <v>453217</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>413624</v>
+        <v>415315</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>499962</v>
+        <v>496326</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.06818169471351038</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.06222529200649195</v>
+        <v>0.06247964230182626</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.07521393723880038</v>
+        <v>0.07466701034166116</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>640052</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>595331</v>
+        <v>594006</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>685331</v>
+        <v>685870</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1955246472388129</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1818630841785074</v>
+        <v>0.1814583349538244</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2093564363390945</v>
+        <v>0.209521303226208</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>820</v>
@@ -4058,19 +4058,19 @@
         <v>831618</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>783170</v>
+        <v>780854</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>883761</v>
+        <v>880166</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2465011019913009</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2321406868616072</v>
+        <v>0.2314542354595665</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2619569719341148</v>
+        <v>0.2608912520710112</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1449</v>
@@ -4079,19 +4079,19 @@
         <v>1471670</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1403827</v>
+        <v>1407633</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1544109</v>
+        <v>1536934</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2213969929543938</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2111908007555417</v>
+        <v>0.2117633837608131</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2322947343075368</v>
+        <v>0.2312153192706884</v>
       </c>
     </row>
     <row r="51">
@@ -4426,19 +4426,19 @@
         <v>128503</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>107488</v>
+        <v>110366</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>148415</v>
+        <v>148518</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2829542533951395</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2366820498774486</v>
+        <v>0.2430181168598345</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3268006030798451</v>
+        <v>0.327027367686721</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>108</v>
@@ -4447,19 +4447,19 @@
         <v>107772</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>89098</v>
+        <v>90889</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>124859</v>
+        <v>125497</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2510980330923291</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2075908111007873</v>
+        <v>0.211761645743635</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2909096857280524</v>
+        <v>0.2923962043773445</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>229</v>
@@ -4468,19 +4468,19 @@
         <v>236274</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>209494</v>
+        <v>209761</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>262429</v>
+        <v>262579</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2674759354171683</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2371593601313138</v>
+        <v>0.2374618729702856</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2970849198887054</v>
+        <v>0.2972543148147968</v>
       </c>
     </row>
     <row r="5">
@@ -4497,19 +4497,19 @@
         <v>104587</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>88729</v>
+        <v>87954</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>122901</v>
+        <v>124562</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2302937484108759</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1953757655397472</v>
+        <v>0.1936699307611935</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2706201890750015</v>
+        <v>0.2742767206689433</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>100</v>
@@ -4518,19 +4518,19 @@
         <v>102619</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>86128</v>
+        <v>84829</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>123235</v>
+        <v>119908</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2390918093907595</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2006712422893823</v>
+        <v>0.1976432044072164</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2871253652611022</v>
+        <v>0.2793744280015115</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>204</v>
@@ -4539,19 +4539,19 @@
         <v>207206</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>183328</v>
+        <v>183658</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>234024</v>
+        <v>234691</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2345685551563643</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2075380874967731</v>
+        <v>0.2079107880158255</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2649287542385576</v>
+        <v>0.2656829642492956</v>
       </c>
     </row>
     <row r="6">
@@ -4568,19 +4568,19 @@
         <v>96341</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>79201</v>
+        <v>80867</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>114420</v>
+        <v>115546</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2121361301874996</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1743946931007655</v>
+        <v>0.178064973767388</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2519450385903633</v>
+        <v>0.2544245850333702</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>78</v>
@@ -4589,19 +4589,19 @@
         <v>81352</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>65346</v>
+        <v>66225</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>99014</v>
+        <v>97348</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.189541702048024</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.152250380058943</v>
+        <v>0.1542986860496015</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2306930801273412</v>
+        <v>0.2268117723335443</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>175</v>
@@ -4610,19 +4610,19 @@
         <v>177692</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>154280</v>
+        <v>153465</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>204024</v>
+        <v>200659</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2011579369194686</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1746542393196781</v>
+        <v>0.1737305977467277</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2309662387549397</v>
+        <v>0.2271568959376765</v>
       </c>
     </row>
     <row r="7">
@@ -4639,19 +4639,19 @@
         <v>38585</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28404</v>
+        <v>27047</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52966</v>
+        <v>51163</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08496212115653042</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06254334444133006</v>
+        <v>0.05955570789603652</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1166286688125476</v>
+        <v>0.112658585312219</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -4660,19 +4660,19 @@
         <v>40170</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28596</v>
+        <v>29540</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53725</v>
+        <v>54384</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09359309574839111</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06662600763914112</v>
+        <v>0.06882613313272268</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1251746824619782</v>
+        <v>0.1267102917246918</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>78</v>
@@ -4681,19 +4681,19 @@
         <v>78756</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>63812</v>
+        <v>63446</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>96320</v>
+        <v>98357</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08915574387519376</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07223843490914102</v>
+        <v>0.07182399444458853</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1090399133969874</v>
+        <v>0.1113452076198345</v>
       </c>
     </row>
     <row r="8">
@@ -4710,19 +4710,19 @@
         <v>86130</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>70088</v>
+        <v>70854</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>102963</v>
+        <v>104545</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1896537468499546</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.154328319287669</v>
+        <v>0.1560158512099881</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2267181812034696</v>
+        <v>0.2302005936159509</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>94</v>
@@ -4731,19 +4731,19 @@
         <v>97290</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>80314</v>
+        <v>80740</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>117125</v>
+        <v>114612</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2266753597204963</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1871231826971388</v>
+        <v>0.1881164600435723</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2728892311292088</v>
+        <v>0.2670345273365625</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>180</v>
@@ -4752,19 +4752,19 @@
         <v>183420</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>160733</v>
+        <v>160206</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>207004</v>
+        <v>206999</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.207641828631805</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.181959121651396</v>
+        <v>0.1813621171091633</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2343407487456687</v>
+        <v>0.2343348168542854</v>
       </c>
     </row>
     <row r="9">
@@ -4856,19 +4856,19 @@
         <v>217896</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>195241</v>
+        <v>194654</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>244352</v>
+        <v>246390</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3176068070852473</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2845836030376003</v>
+        <v>0.2837279274776556</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3561683744368419</v>
+        <v>0.3591388096913891</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>184</v>
@@ -4877,19 +4877,19 @@
         <v>194054</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>174315</v>
+        <v>170316</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>219021</v>
+        <v>217215</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3179888863667428</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2856425755039322</v>
+        <v>0.2790897348985909</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3589000514337667</v>
+        <v>0.355941750065504</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>397</v>
@@ -4898,19 +4898,19 @@
         <v>411951</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>378833</v>
+        <v>376851</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>444751</v>
+        <v>446690</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3177866756582017</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.292239139830262</v>
+        <v>0.2907098041826595</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3430890106128484</v>
+        <v>0.3445848861590075</v>
       </c>
     </row>
     <row r="11">
@@ -4927,19 +4927,19 @@
         <v>159211</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>138475</v>
+        <v>136719</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>181173</v>
+        <v>181568</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2320673285969274</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.201841126718106</v>
+        <v>0.1992818707802116</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2640786152474585</v>
+        <v>0.2646543556705691</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>111</v>
@@ -4948,19 +4948,19 @@
         <v>122570</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>100632</v>
+        <v>103137</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>142043</v>
+        <v>145010</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2008509422079928</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1649022055429314</v>
+        <v>0.1690063794883269</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2327599232324191</v>
+        <v>0.2376220543029763</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>267</v>
@@ -4969,19 +4969,19 @@
         <v>281782</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>252172</v>
+        <v>253060</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>314095</v>
+        <v>311968</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2173718265257467</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1945299295833499</v>
+        <v>0.1952153078967163</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2422987543535974</v>
+        <v>0.2406582056495308</v>
       </c>
     </row>
     <row r="12">
@@ -4998,19 +4998,19 @@
         <v>140252</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>119791</v>
+        <v>118852</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>161551</v>
+        <v>162202</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2044316678996283</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1746078628734193</v>
+        <v>0.1732398980987737</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2354773540818107</v>
+        <v>0.2364267692980761</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>115</v>
@@ -5019,19 +5019,19 @@
         <v>119222</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>100414</v>
+        <v>100775</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>139323</v>
+        <v>138804</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1953639566781422</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.164543745765223</v>
+        <v>0.165135440552711</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2283026153886869</v>
+        <v>0.2274524384004577</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>255</v>
@@ -5040,19 +5040,19 @@
         <v>259474</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>229867</v>
+        <v>229166</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>291897</v>
+        <v>287482</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2001629300843041</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.17732381189718</v>
+        <v>0.1767830840317466</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2251749681248081</v>
+        <v>0.2217689080192978</v>
       </c>
     </row>
     <row r="13">
@@ -5069,19 +5069,19 @@
         <v>43601</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31980</v>
+        <v>31096</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58816</v>
+        <v>57608</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06355259862052443</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04661356426110737</v>
+        <v>0.04532519569568077</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0857310861518181</v>
+        <v>0.08397042249763313</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -5090,19 +5090,19 @@
         <v>47086</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34856</v>
+        <v>34066</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61780</v>
+        <v>61747</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0771571668704308</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05711787513618528</v>
+        <v>0.05582321139589246</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1012370309403475</v>
+        <v>0.1011814939932663</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>86</v>
@@ -5111,19 +5111,19 @@
         <v>90686</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>73797</v>
+        <v>73887</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>112262</v>
+        <v>109983</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0699571182982052</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05692824633861232</v>
+        <v>0.05699814944524961</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0866010486630551</v>
+        <v>0.08484271410466651</v>
       </c>
     </row>
     <row r="14">
@@ -5140,19 +5140,19 @@
         <v>125097</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>105763</v>
+        <v>103948</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>148635</v>
+        <v>146151</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1823415977976726</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1541611549870928</v>
+        <v>0.1515150113350678</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2166509849479004</v>
+        <v>0.2130307413398976</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>117</v>
@@ -5161,19 +5161,19 @@
         <v>127323</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>108711</v>
+        <v>105804</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>148041</v>
+        <v>149112</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2086390478766914</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1781402699446265</v>
+        <v>0.1733765806247608</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2425889271889366</v>
+        <v>0.2443439451826455</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>232</v>
@@ -5182,19 +5182,19 @@
         <v>252420</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>225658</v>
+        <v>225205</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>285382</v>
+        <v>283864</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1947214494335422</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1740766707724549</v>
+        <v>0.1737275960392774</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.220149091736102</v>
+        <v>0.2189778375896647</v>
       </c>
     </row>
     <row r="15">
@@ -5286,19 +5286,19 @@
         <v>246597</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>221635</v>
+        <v>220687</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>275708</v>
+        <v>273280</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3626011438826876</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3258962290353856</v>
+        <v>0.3245022666256538</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4054067587966205</v>
+        <v>0.4018366829434997</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>235</v>
@@ -5307,19 +5307,19 @@
         <v>247327</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>221089</v>
+        <v>224164</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>276343</v>
+        <v>274564</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3494456199943694</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3123734748357814</v>
+        <v>0.3167179055876289</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3904410927499057</v>
+        <v>0.3879283469380248</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>472</v>
@@ -5328,19 +5328,19 @@
         <v>493925</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>459097</v>
+        <v>457125</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>533009</v>
+        <v>530286</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3558921315424801</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3307978588128189</v>
+        <v>0.3293764813138774</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3840542941174503</v>
+        <v>0.3820916781324514</v>
       </c>
     </row>
     <row r="17">
@@ -5357,19 +5357,19 @@
         <v>164885</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>143902</v>
+        <v>142496</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>190776</v>
+        <v>188303</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2424496624922836</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2115968727324566</v>
+        <v>0.209529394961983</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2805213455195786</v>
+        <v>0.2768844570818108</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>130</v>
@@ -5378,19 +5378,19 @@
         <v>137635</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>115776</v>
+        <v>116299</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>159122</v>
+        <v>157936</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1944631398897457</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1635789076999902</v>
+        <v>0.1643178557384619</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.224821107404191</v>
+        <v>0.2231457700258626</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>279</v>
@@ -5399,19 +5399,19 @@
         <v>302520</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>271495</v>
+        <v>271180</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>339195</v>
+        <v>335697</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2179776479197625</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1956227932890345</v>
+        <v>0.1953962250825906</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2444033001058866</v>
+        <v>0.241882833353386</v>
       </c>
     </row>
     <row r="18">
@@ -5428,19 +5428,19 @@
         <v>135633</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>115711</v>
+        <v>114521</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>157286</v>
+        <v>157759</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1994368875465938</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1701433934139433</v>
+        <v>0.1683935152580438</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2312769193266406</v>
+        <v>0.2319718872012468</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>125</v>
@@ -5449,19 +5449,19 @@
         <v>132782</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>111967</v>
+        <v>112989</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>154912</v>
+        <v>154973</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1876054228562732</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.158196682237701</v>
+        <v>0.1596403723982007</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.218872661227926</v>
+        <v>0.2189589974948382</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>259</v>
@@ -5470,19 +5470,19 @@
         <v>268414</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>241380</v>
+        <v>237438</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>301911</v>
+        <v>298301</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1934031147159598</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1739239021778536</v>
+        <v>0.1710833737541552</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2175387532897104</v>
+        <v>0.2149373047919728</v>
       </c>
     </row>
     <row r="19">
@@ -5499,19 +5499,19 @@
         <v>24001</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16118</v>
+        <v>15509</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35910</v>
+        <v>35147</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03529188333424064</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0237008772337454</v>
+        <v>0.02280440288296852</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05280333753051596</v>
+        <v>0.05168068090983199</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -5520,19 +5520,19 @@
         <v>56065</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42021</v>
+        <v>41958</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72103</v>
+        <v>73600</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07921392550379966</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05937153227464029</v>
+        <v>0.05928157773181453</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1018734317717247</v>
+        <v>0.103988184468151</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>76</v>
@@ -5541,19 +5541,19 @@
         <v>80067</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>64653</v>
+        <v>64110</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>99519</v>
+        <v>100099</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05769110706902079</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04658493543494779</v>
+        <v>0.04619396509409351</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07170771460168968</v>
+        <v>0.07212520448928042</v>
       </c>
     </row>
     <row r="20">
@@ -5570,19 +5570,19 @@
         <v>108962</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>88255</v>
+        <v>89674</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>128956</v>
+        <v>128964</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1602204227441944</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.129772525088439</v>
+        <v>0.131858008451731</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1896188546907252</v>
+        <v>0.1896317081147478</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>122</v>
@@ -5591,19 +5591,19 @@
         <v>133961</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>113061</v>
+        <v>114148</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>156549</v>
+        <v>158145</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1892718917558121</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1597419656123081</v>
+        <v>0.1612776776067517</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2211853100211994</v>
+        <v>0.2234412826591559</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>227</v>
@@ -5612,19 +5612,19 @@
         <v>242924</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>216327</v>
+        <v>212827</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>271626</v>
+        <v>272527</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1750359987527767</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1558722153916145</v>
+        <v>0.1533505375397421</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1957172103009153</v>
+        <v>0.1963665102023924</v>
       </c>
     </row>
     <row r="21">
@@ -5716,19 +5716,19 @@
         <v>254869</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>229485</v>
+        <v>228511</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>281598</v>
+        <v>279150</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4146787891926613</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3733784426420434</v>
+        <v>0.3717943008583909</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4581676856329271</v>
+        <v>0.4541855367166585</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>207</v>
@@ -5737,19 +5737,19 @@
         <v>233910</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>207241</v>
+        <v>208370</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>256380</v>
+        <v>258568</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3803111122324362</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3369507684844766</v>
+        <v>0.3387854622618499</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4168440693750441</v>
+        <v>0.420401767697192</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>434</v>
@@ -5758,19 +5758,19 @@
         <v>488779</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>454965</v>
+        <v>452714</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>522862</v>
+        <v>523456</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3974889047217292</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3699911079129571</v>
+        <v>0.3681601939544795</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4252064675734349</v>
+        <v>0.4256897292760469</v>
       </c>
     </row>
     <row r="23">
@@ -5787,19 +5787,19 @@
         <v>137094</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>116063</v>
+        <v>115300</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>160710</v>
+        <v>159001</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.223056779719653</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1888382640824309</v>
+        <v>0.1875968137787733</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2614794906722662</v>
+        <v>0.2586988147008508</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>101</v>
@@ -5808,19 +5808,19 @@
         <v>114833</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>95015</v>
+        <v>95496</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>137890</v>
+        <v>135373</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1867054416021945</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1544837925123104</v>
+        <v>0.1552649537426412</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2241929090715348</v>
+        <v>0.2201016148912066</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>226</v>
@@ -5829,19 +5829,19 @@
         <v>251927</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>222616</v>
+        <v>223286</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>282711</v>
+        <v>279874</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2048747157027545</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1810378100524859</v>
+        <v>0.1815828678361724</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2299087034412483</v>
+        <v>0.2276020416283829</v>
       </c>
     </row>
     <row r="24">
@@ -5858,19 +5858,19 @@
         <v>109965</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>91726</v>
+        <v>90733</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>131605</v>
+        <v>131695</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1789162081005433</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1492407528174477</v>
+        <v>0.1476258140544901</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2141244451360558</v>
+        <v>0.214270914884951</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>94</v>
@@ -5879,19 +5879,19 @@
         <v>110867</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>90606</v>
+        <v>92212</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>133363</v>
+        <v>134808</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1802570327641492</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1473158134867031</v>
+        <v>0.1499258043730197</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2168329985232288</v>
+        <v>0.2191822164945072</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>188</v>
@@ -5900,19 +5900,19 @@
         <v>220832</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>192821</v>
+        <v>195284</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>252598</v>
+        <v>254501</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1795868563113559</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.156807316746665</v>
+        <v>0.1588108354506187</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2054197326442377</v>
+        <v>0.2069676935112783</v>
       </c>
     </row>
     <row r="25">
@@ -5929,19 +5929,19 @@
         <v>17896</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10109</v>
+        <v>11382</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27274</v>
+        <v>27608</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02911669036695338</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01644826104834771</v>
+        <v>0.01851941640712586</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04437504361740612</v>
+        <v>0.04491906933136925</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>34</v>
@@ -5950,19 +5950,19 @@
         <v>39485</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27601</v>
+        <v>28508</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>54537</v>
+        <v>54782</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06419760216970372</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04487688535177236</v>
+        <v>0.04635062816541449</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08867147945644392</v>
+        <v>0.08906926058005703</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>51</v>
@@ -5971,19 +5971,19 @@
         <v>57380</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>42761</v>
+        <v>43345</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>73645</v>
+        <v>74314</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04666331773202526</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03477473131881628</v>
+        <v>0.03524960651996709</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05989033116915071</v>
+        <v>0.06043453144548474</v>
       </c>
     </row>
     <row r="26">
@@ -6000,19 +6000,19 @@
         <v>94793</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>77400</v>
+        <v>76576</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>117297</v>
+        <v>115978</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.154231532620189</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1259315175090084</v>
+        <v>0.12459172306385</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1908449466185401</v>
+        <v>0.1886989241282935</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>102</v>
@@ -6021,19 +6021,19 @@
         <v>115954</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>96765</v>
+        <v>96817</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>136792</v>
+        <v>140263</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1885288112315164</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1573290978823639</v>
+        <v>0.1574138077089425</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2224081271217351</v>
+        <v>0.2280511327539178</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>187</v>
@@ -6042,19 +6042,19 @@
         <v>210748</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>185193</v>
+        <v>183975</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>240883</v>
+        <v>239771</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1713862055321351</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1506045821798812</v>
+        <v>0.1496139628814234</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.195892642950304</v>
+        <v>0.1949890225169606</v>
       </c>
     </row>
     <row r="27">
@@ -6146,19 +6146,19 @@
         <v>197836</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>177469</v>
+        <v>179500</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>220051</v>
+        <v>220812</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4606954682229533</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4132673749042654</v>
+        <v>0.4179959065304878</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5124279447243235</v>
+        <v>0.5141993514303732</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>186</v>
@@ -6167,19 +6167,19 @@
         <v>202749</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>178054</v>
+        <v>180962</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>223828</v>
+        <v>224999</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.452766384477949</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3976200460096367</v>
+        <v>0.4041143903387339</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4998397386560611</v>
+        <v>0.5024543736871159</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>366</v>
@@ -6188,19 +6188,19 @@
         <v>400585</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>369142</v>
+        <v>371291</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>430797</v>
+        <v>431454</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.456647901334949</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4208042787092805</v>
+        <v>0.4232539752123495</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4910887670983856</v>
+        <v>0.4918371750163713</v>
       </c>
     </row>
     <row r="29">
@@ -6217,19 +6217,19 @@
         <v>87465</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>72386</v>
+        <v>70906</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>106569</v>
+        <v>106558</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2036765395975975</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1685631457072668</v>
+        <v>0.1651180421506372</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2481635746647557</v>
+        <v>0.2481376998417145</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>72</v>
@@ -6238,19 +6238,19 @@
         <v>77197</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>60545</v>
+        <v>64263</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>93707</v>
+        <v>96643</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1723909882746534</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1352048026496464</v>
+        <v>0.1435080300033612</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2092604551985018</v>
+        <v>0.2158165889352214</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>154</v>
@@ -6259,19 +6259,19 @@
         <v>164661</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>143316</v>
+        <v>141216</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>191224</v>
+        <v>188687</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1877061745869505</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1633736680024849</v>
+        <v>0.1609796508786799</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2179862719493783</v>
+        <v>0.2150942698925019</v>
       </c>
     </row>
     <row r="30">
@@ -6288,19 +6288,19 @@
         <v>61324</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>48098</v>
+        <v>46929</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>78458</v>
+        <v>76966</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.142802663146921</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1120054961542541</v>
+        <v>0.1092818131827326</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1827033323078587</v>
+        <v>0.1792284597864731</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>58</v>
@@ -6309,19 +6309,19 @@
         <v>65834</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>51558</v>
+        <v>49250</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>83238</v>
+        <v>82009</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1470169593385766</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1151371960794283</v>
+        <v>0.1099825308970118</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1858828968409722</v>
+        <v>0.183137601662739</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>114</v>
@@ -6330,19 +6330,19 @@
         <v>127158</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>107203</v>
+        <v>107446</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>150601</v>
+        <v>152362</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.144953938914734</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1222060982961601</v>
+        <v>0.1224838059185003</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1716786570514912</v>
+        <v>0.173685761240213</v>
       </c>
     </row>
     <row r="31">
@@ -6359,19 +6359,19 @@
         <v>17442</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10350</v>
+        <v>9561</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>28818</v>
+        <v>29716</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04061582426589819</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02410097867404892</v>
+        <v>0.02226329634396662</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06710771100598602</v>
+        <v>0.06919805717212524</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>18</v>
@@ -6380,19 +6380,19 @@
         <v>20426</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12632</v>
+        <v>12506</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>31766</v>
+        <v>31093</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04561359126993775</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0282101356833171</v>
+        <v>0.02792718908997727</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07093776301241611</v>
+        <v>0.06943417548235237</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>32</v>
@@ -6401,19 +6401,19 @@
         <v>37867</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>26503</v>
+        <v>26165</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>52552</v>
+        <v>52576</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04316703912124082</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03021186812947587</v>
+        <v>0.02982728749751191</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05990645576937963</v>
+        <v>0.05993432290071827</v>
       </c>
     </row>
     <row r="32">
@@ -6430,19 +6430,19 @@
         <v>65363</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>51417</v>
+        <v>51580</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>82061</v>
+        <v>80956</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1522095047666301</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.119734252066424</v>
+        <v>0.1201130027916641</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.191093839324955</v>
+        <v>0.1885210379844741</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>72</v>
@@ -6451,19 +6451,19 @@
         <v>81595</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>64627</v>
+        <v>65520</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>99707</v>
+        <v>99618</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1822120766388833</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.144320086343186</v>
+        <v>0.1463151408444043</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.222659680721059</v>
+        <v>0.222460305675268</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>133</v>
@@ -6472,19 +6472,19 @@
         <v>146958</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>126832</v>
+        <v>125286</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>171165</v>
+        <v>170814</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1675249460421257</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1445821535409461</v>
+        <v>0.1428204079281837</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1951203151736315</v>
+        <v>0.1947201751115943</v>
       </c>
     </row>
     <row r="33">
@@ -6576,19 +6576,19 @@
         <v>154123</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>134069</v>
+        <v>134007</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>171876</v>
+        <v>171423</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4975130066540324</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4327783143727646</v>
+        <v>0.4325778572601974</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5548232897968444</v>
+        <v>0.5533607152081594</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>172</v>
@@ -6597,19 +6597,19 @@
         <v>176832</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>158067</v>
+        <v>157137</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>196397</v>
+        <v>193412</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5020903253974348</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4488106672956263</v>
+        <v>0.4461692799975845</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5576436167548546</v>
+        <v>0.5491668269339983</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>314</v>
@@ -6618,19 +6618,19 @@
         <v>330955</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>305717</v>
+        <v>306623</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>358069</v>
+        <v>358168</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4999482736223925</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4618231710532028</v>
+        <v>0.4631915972928895</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5409081179568834</v>
+        <v>0.541056949342533</v>
       </c>
     </row>
     <row r="35">
@@ -6647,19 +6647,19 @@
         <v>52247</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>40517</v>
+        <v>38895</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>67505</v>
+        <v>65774</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1686542053967425</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1307889291629049</v>
+        <v>0.1255528426395102</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2179072340230371</v>
+        <v>0.2123206335654326</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>57</v>
@@ -6668,19 +6668,19 @@
         <v>59105</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>45255</v>
+        <v>46828</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>74546</v>
+        <v>74480</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1678215412710292</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1284966119263011</v>
+        <v>0.1329608025267978</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2116624115357711</v>
+        <v>0.2114748517893844</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>105</v>
@@ -6689,19 +6689,19 @@
         <v>111352</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>93889</v>
+        <v>91241</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>131354</v>
+        <v>131860</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1682112038155197</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1418311627040833</v>
+        <v>0.1378302019705911</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1984262608723274</v>
+        <v>0.1991907639786255</v>
       </c>
     </row>
     <row r="36">
@@ -6718,19 +6718,19 @@
         <v>30292</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>20035</v>
+        <v>20414</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>43429</v>
+        <v>46161</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09778381315722799</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.06467222873849687</v>
+        <v>0.06589810317562608</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1401887270928318</v>
+        <v>0.1490097510462057</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>34</v>
@@ -6739,19 +6739,19 @@
         <v>34158</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>23976</v>
+        <v>25306</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>47428</v>
+        <v>48214</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0969864577486368</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.06807730443442522</v>
+        <v>0.07185238310996866</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1346669785025045</v>
+        <v>0.1368965750198082</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>59</v>
@@ -6760,19 +6760,19 @@
         <v>64450</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>48036</v>
+        <v>50684</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>80829</v>
+        <v>81519</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.09735959684251663</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.07256475731635882</v>
+        <v>0.07656403924149434</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.122102259239144</v>
+        <v>0.123144295537968</v>
       </c>
     </row>
     <row r="37">
@@ -6789,19 +6789,19 @@
         <v>11058</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>5051</v>
+        <v>5927</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>20061</v>
+        <v>20024</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03569558482853399</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01630539175995629</v>
+        <v>0.01913159185861482</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06475808695722225</v>
+        <v>0.06463852125198732</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>15</v>
@@ -6810,19 +6810,19 @@
         <v>15235</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>8794</v>
+        <v>9292</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>24726</v>
+        <v>25031</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04325794720343379</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02496913050715541</v>
+        <v>0.02638330202481358</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07020507286933352</v>
+        <v>0.0710709379968955</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>25</v>
@@ -6831,19 +6831,19 @@
         <v>26293</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>17187</v>
+        <v>17153</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>38335</v>
+        <v>38418</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03971898200202277</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02596321696253288</v>
+        <v>0.0259111577530445</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05790937645471697</v>
+        <v>0.05803469411789163</v>
       </c>
     </row>
     <row r="38">
@@ -6860,19 +6860,19 @@
         <v>62067</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>48733</v>
+        <v>48815</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>77405</v>
+        <v>77192</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2003533899634631</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1573104860238078</v>
+        <v>0.1575777282080513</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2498666597678878</v>
+        <v>0.2491788565109784</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>65</v>
@@ -6881,19 +6881,19 @@
         <v>66861</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>53834</v>
+        <v>52244</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>83544</v>
+        <v>80908</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1898437283794654</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1528542081873556</v>
+        <v>0.1483406070140168</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2372129094583357</v>
+        <v>0.2297279791038034</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>122</v>
@@ -6902,19 +6902,19 @@
         <v>128928</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>109690</v>
+        <v>110528</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>151684</v>
+        <v>151640</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1947619437175484</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1657011108926051</v>
+        <v>0.1669659362540514</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2291368578714635</v>
+        <v>0.2290705479000411</v>
       </c>
     </row>
     <row r="39">
@@ -7006,19 +7006,19 @@
         <v>152427</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>134315</v>
+        <v>135043</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>168501</v>
+        <v>168318</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.6124393199636395</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5396652390102015</v>
+        <v>0.542593707374465</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.6770242592516507</v>
+        <v>0.6762865283218176</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>194</v>
@@ -7027,19 +7027,19 @@
         <v>213126</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>191471</v>
+        <v>191765</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>230100</v>
+        <v>232055</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5523906794838953</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.4962650202806059</v>
+        <v>0.4970269284601018</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.596385576893639</v>
+        <v>0.6014506784425281</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>334</v>
@@ -7048,19 +7048,19 @@
         <v>365554</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>342083</v>
+        <v>338408</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>391118</v>
+        <v>391692</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5759372151869103</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5389587354030414</v>
+        <v>0.5331679046708363</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.6162141203219168</v>
+        <v>0.6171193789836721</v>
       </c>
     </row>
     <row r="41">
@@ -7077,19 +7077,19 @@
         <v>36227</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>25893</v>
+        <v>25401</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>52864</v>
+        <v>49935</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1455568693750786</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1040375583113357</v>
+        <v>0.102059312454084</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2124050302120754</v>
+        <v>0.200634613265978</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>27</v>
@@ -7098,19 +7098,19 @@
         <v>29149</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>19204</v>
+        <v>20466</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>40914</v>
+        <v>41598</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.07554890073566274</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.04977486482555698</v>
+        <v>0.0530439726316972</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1060424954188436</v>
+        <v>0.1078167993568793</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>57</v>
@@ -7119,19 +7119,19 @@
         <v>65376</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>49559</v>
+        <v>50190</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>83228</v>
+        <v>84565</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1030007317828556</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07808170724331433</v>
+        <v>0.0790751043008569</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1311275546184001</v>
+        <v>0.1332333529809284</v>
       </c>
     </row>
     <row r="42">
@@ -7148,19 +7148,19 @@
         <v>15990</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8978</v>
+        <v>8807</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>27664</v>
+        <v>25831</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.06424689776881379</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.03607168646091998</v>
+        <v>0.03538746573637982</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1111500693160548</v>
+        <v>0.1037870683276141</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>28</v>
@@ -7169,19 +7169,19 @@
         <v>31822</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>21627</v>
+        <v>21006</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>44254</v>
+        <v>43365</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.08247676664869497</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.05605486967853247</v>
+        <v>0.05444536025875928</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1146989193878411</v>
+        <v>0.1123963801372746</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>41</v>
@@ -7190,19 +7190,19 @@
         <v>47812</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>35133</v>
+        <v>34144</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>63905</v>
+        <v>64534</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.07532839068194513</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.05535238607709878</v>
+        <v>0.05379481207403376</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1006837614797026</v>
+        <v>0.1016740304785238</v>
       </c>
     </row>
     <row r="43">
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>7795</v>
+        <v>6536</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.008679043012172495</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03131916377197197</v>
+        <v>0.02626052088597213</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>9</v>
@@ -7240,19 +7240,19 @@
         <v>9721</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>5272</v>
+        <v>4382</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>17494</v>
+        <v>17430</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02519522192534207</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01366409634359683</v>
+        <v>0.01135780132942074</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.04534067698861153</v>
+        <v>0.04517577856020982</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>11</v>
@@ -7261,19 +7261,19 @@
         <v>11881</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>6442</v>
+        <v>6341</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>20012</v>
+        <v>20557</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01871882556816699</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01014933491102414</v>
+        <v>0.009989992050658736</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03152907804084809</v>
+        <v>0.03238783018974205</v>
       </c>
     </row>
     <row r="44">
@@ -7290,19 +7290,19 @@
         <v>42081</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>30730</v>
+        <v>30272</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>56348</v>
+        <v>57728</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1690778698802955</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1234697365223928</v>
+        <v>0.1216318296541396</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2264010424864296</v>
+        <v>0.2319446521379594</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>90</v>
@@ -7311,19 +7311,19 @@
         <v>102008</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>84938</v>
+        <v>86542</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>121460</v>
+        <v>120221</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2643884312064049</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2201463117247758</v>
+        <v>0.2243042098767151</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3148055329880849</v>
+        <v>0.3115936029291151</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>126</v>
@@ -7332,19 +7332,19 @@
         <v>144089</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>120903</v>
+        <v>122679</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>164838</v>
+        <v>166719</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2270148367801219</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1904845825217222</v>
+        <v>0.1932826870020228</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2597053178113331</v>
+        <v>0.2626693952758971</v>
       </c>
     </row>
     <row r="45">
@@ -7436,19 +7436,19 @@
         <v>1352251</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1296500</v>
+        <v>1289582</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>1416617</v>
+        <v>1415051</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.3950484872899524</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.3787614521509839</v>
+        <v>0.3767403825103117</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.4138525563155909</v>
+        <v>0.4133950313238805</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1286</v>
@@ -7457,19 +7457,19 @@
         <v>1375770</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1319712</v>
+        <v>1318692</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>1437854</v>
+        <v>1436518</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.3877492051367794</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.3719496387556123</v>
+        <v>0.3716621632765177</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.4052469312838786</v>
+        <v>0.4048704613354601</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>2546</v>
@@ -7478,19 +7478,19 @@
         <v>2728021</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>2637954</v>
+        <v>2644911</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>2813185</v>
+        <v>2808640</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.3913333545562593</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.3784132139848148</v>
+        <v>0.3794112585763247</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.4035500082841575</v>
+        <v>0.4028980435323502</v>
       </c>
     </row>
     <row r="47">
@@ -7507,19 +7507,19 @@
         <v>741716</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>692685</v>
+        <v>685694</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>793479</v>
+        <v>790414</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2166860096273522</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2023618802815366</v>
+        <v>0.2003197171254817</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2318082253143794</v>
+        <v>0.2309127093930782</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>598</v>
@@ -7528,19 +7528,19 @@
         <v>643108</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>592631</v>
+        <v>598449</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>688231</v>
+        <v>691366</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1812545166429024</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1670280723331778</v>
+        <v>0.16866784218584</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1939721457742158</v>
+        <v>0.1948557921654913</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1292</v>
@@ -7549,19 +7549,19 @@
         <v>1384824</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1318568</v>
+        <v>1315025</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1460924</v>
+        <v>1457940</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1986523596563174</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1891479252216869</v>
+        <v>0.1886397814858395</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2095688252200649</v>
+        <v>0.2091407755678175</v>
       </c>
     </row>
     <row r="48">
@@ -7578,19 +7578,19 @@
         <v>589796</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>543379</v>
+        <v>546323</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>631993</v>
+        <v>636934</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1723038803388759</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1587436114382832</v>
+        <v>0.1596034848921251</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1846313249924122</v>
+        <v>0.1860747370585906</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>532</v>
@@ -7599,19 +7599,19 @@
         <v>576036</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>532876</v>
+        <v>528979</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>623740</v>
+        <v>618554</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1623507646648945</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1501864809079259</v>
+        <v>0.1490881975609133</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1757957956220968</v>
+        <v>0.1743343080798168</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1091</v>
@@ -7620,19 +7620,19 @@
         <v>1165832</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1102432</v>
+        <v>1098534</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1229193</v>
+        <v>1229377</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1672380197423559</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1581433216180383</v>
+        <v>0.1575842334143379</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1763271325650346</v>
+        <v>0.1763535644577477</v>
       </c>
     </row>
     <row r="49">
@@ -7649,19 +7649,19 @@
         <v>154743</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>132180</v>
+        <v>129117</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>181565</v>
+        <v>180710</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.04520670416428029</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.0386151507981289</v>
+        <v>0.03772034504131692</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.05304278994230859</v>
+        <v>0.05279302683753777</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>212</v>
@@ -7670,19 +7670,19 @@
         <v>228188</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>199911</v>
+        <v>197981</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>261579</v>
+        <v>260491</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.06431275327075617</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.05634310553799909</v>
+        <v>0.05579929979577038</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.0737237200690485</v>
+        <v>0.07341714954747838</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>359</v>
@@ -7691,19 +7691,19 @@
         <v>382930</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>344614</v>
+        <v>343192</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>422826</v>
+        <v>422850</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.05493115472770435</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.04943477662780306</v>
+        <v>0.04923079047578136</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.06065420922324957</v>
+        <v>0.0606576296398654</v>
       </c>
     </row>
     <row r="50">
@@ -7720,19 +7720,19 @@
         <v>584494</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>541265</v>
+        <v>536095</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>630875</v>
+        <v>629634</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1707549185795392</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1581259703668617</v>
+        <v>0.156615660177506</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1843046626387098</v>
+        <v>0.1839423105144254</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>662</v>
@@ -7741,19 +7741,19 @@
         <v>724992</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>679417</v>
+        <v>675136</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>778183</v>
+        <v>775221</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2043327602846676</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1914879061304608</v>
+        <v>0.1902813492192917</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.219324334697533</v>
+        <v>0.2184894489264057</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1207</v>
@@ -7762,19 +7762,19 @@
         <v>1309486</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1233158</v>
+        <v>1246181</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1375794</v>
+        <v>1377862</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.187845111317363</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1768959956919973</v>
+        <v>0.1787641442115395</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1973570176180677</v>
+        <v>0.1976536194722842</v>
       </c>
     </row>
     <row r="51">
@@ -8109,19 +8109,19 @@
         <v>96157</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>81082</v>
+        <v>78114</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>115305</v>
+        <v>113998</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2309632439083019</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1947544118469764</v>
+        <v>0.1876241274849935</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2769562272574331</v>
+        <v>0.2738153000359728</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -8130,19 +8130,19 @@
         <v>74345</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60125</v>
+        <v>59416</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>90427</v>
+        <v>89238</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1885703439018196</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1525032823776958</v>
+        <v>0.1507043204438815</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2293611714510228</v>
+        <v>0.2263458406412326</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>162</v>
@@ -8151,19 +8151,19 @@
         <v>170502</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>147865</v>
+        <v>147002</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>195187</v>
+        <v>196107</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2103440670380906</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1824179908066074</v>
+        <v>0.1813529524701649</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.240798112675326</v>
+        <v>0.241932769570795</v>
       </c>
     </row>
     <row r="5">
@@ -8180,19 +8180,19 @@
         <v>134344</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>114013</v>
+        <v>116071</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>152815</v>
+        <v>153324</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3226856534853565</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2738515821020929</v>
+        <v>0.2787959336820841</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3670528107057354</v>
+        <v>0.3682747173778322</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>119</v>
@@ -8201,19 +8201,19 @@
         <v>115775</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>98853</v>
+        <v>99089</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>133440</v>
+        <v>134156</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2936542273848757</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2507329578532849</v>
+        <v>0.251333060338791</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3384602343756992</v>
+        <v>0.3402782201618624</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>248</v>
@@ -8222,19 +8222,19 @@
         <v>250118</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>226213</v>
+        <v>223161</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>277905</v>
+        <v>275841</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3085652675370314</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2790732560006871</v>
+        <v>0.2753084806014558</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3428449112720871</v>
+        <v>0.3402986037043449</v>
       </c>
     </row>
     <row r="6">
@@ -8251,19 +8251,19 @@
         <v>110936</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>92324</v>
+        <v>94362</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>130032</v>
+        <v>130650</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2664612718300749</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2217558791045246</v>
+        <v>0.2266521783018144</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3123294684882243</v>
+        <v>0.3138134237180198</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>108</v>
@@ -8272,19 +8272,19 @@
         <v>105248</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>87379</v>
+        <v>88299</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>121518</v>
+        <v>124172</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2669541532546526</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.221630500443504</v>
+        <v>0.2239644119302906</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3082217208314668</v>
+        <v>0.314952388482563</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>213</v>
@@ -8293,19 +8293,19 @@
         <v>216184</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>192634</v>
+        <v>192128</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>241072</v>
+        <v>240976</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2667010008712081</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2376483565969083</v>
+        <v>0.2370233431426539</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2974052224256779</v>
+        <v>0.2972870624176781</v>
       </c>
     </row>
     <row r="7">
@@ -8322,19 +8322,19 @@
         <v>28766</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19112</v>
+        <v>18582</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42687</v>
+        <v>42474</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06909463416613211</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0459054060687034</v>
+        <v>0.0446325630541138</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.102531215883259</v>
+        <v>0.1020204123275769</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -8343,19 +8343,19 @@
         <v>34274</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24047</v>
+        <v>24451</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47036</v>
+        <v>45180</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08693288498284624</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06099427365621154</v>
+        <v>0.06201915752548697</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1193031263174432</v>
+        <v>0.1145969656961197</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>60</v>
@@ -8364,19 +8364,19 @@
         <v>63040</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49227</v>
+        <v>48957</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>78515</v>
+        <v>80829</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07777085232032251</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06073019665324151</v>
+        <v>0.06039669986179728</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09686176021785894</v>
+        <v>0.09971662482583772</v>
       </c>
     </row>
     <row r="8">
@@ -8393,19 +8393,19 @@
         <v>46127</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>34772</v>
+        <v>34449</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>59682</v>
+        <v>60301</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1107951966101346</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08352059617860383</v>
+        <v>0.08274447171397352</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1433514360667407</v>
+        <v>0.1448400319561698</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>66</v>
@@ -8414,19 +8414,19 @@
         <v>64614</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>51654</v>
+        <v>51394</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>81205</v>
+        <v>80889</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1638883904758059</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.131016589559237</v>
+        <v>0.1303578442506154</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2059719957590642</v>
+        <v>0.205168371688556</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>110</v>
@@ -8435,19 +8435,19 @@
         <v>110741</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>93373</v>
+        <v>91190</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>132916</v>
+        <v>131431</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1366188122333474</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1151921172240258</v>
+        <v>0.1124995302169064</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1639756767042892</v>
+        <v>0.1621438508608105</v>
       </c>
     </row>
     <row r="9">
@@ -8539,19 +8539,19 @@
         <v>108305</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>88886</v>
+        <v>88566</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>129222</v>
+        <v>128000</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1847316175223406</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1516106080542275</v>
+        <v>0.1510642948185925</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2204095086749394</v>
+        <v>0.2183245800813458</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>99</v>
@@ -8560,19 +8560,19 @@
         <v>97592</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>81488</v>
+        <v>79773</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>116233</v>
+        <v>115874</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1731754503450889</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1445993782229101</v>
+        <v>0.1415564957391238</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2062535690606282</v>
+        <v>0.2056161514862466</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>199</v>
@@ -8581,19 +8581,19 @@
         <v>205897</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>177625</v>
+        <v>179470</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>231307</v>
+        <v>233882</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1790677911699286</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.154480043086309</v>
+        <v>0.1560847649255791</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2011673823166719</v>
+        <v>0.2034068854573067</v>
       </c>
     </row>
     <row r="11">
@@ -8610,19 +8610,19 @@
         <v>202944</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>178498</v>
+        <v>179407</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>226274</v>
+        <v>226605</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3461553817006713</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3044583619366899</v>
+        <v>0.306009006814992</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3859481134452295</v>
+        <v>0.3865120746759974</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>178</v>
@@ -8631,19 +8631,19 @@
         <v>172511</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>152814</v>
+        <v>151284</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>196016</v>
+        <v>194407</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3061172418719934</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2711667871279573</v>
+        <v>0.268451859783762</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.347827755647893</v>
+        <v>0.344972186213233</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>375</v>
@@ -8652,19 +8652,19 @@
         <v>375455</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>344344</v>
+        <v>343617</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>407385</v>
+        <v>406442</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3265321737645992</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2994747043369954</v>
+        <v>0.2988432988473312</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3543021161336334</v>
+        <v>0.3534815967066954</v>
       </c>
     </row>
     <row r="12">
@@ -8681,19 +8681,19 @@
         <v>155319</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>135848</v>
+        <v>135459</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>179036</v>
+        <v>179773</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2649222673855872</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2317120535340053</v>
+        <v>0.2310479002947416</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3053764783894644</v>
+        <v>0.306632848121076</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>157</v>
@@ -8702,19 +8702,19 @@
         <v>148101</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>127682</v>
+        <v>129355</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>167781</v>
+        <v>171544</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2628026333054527</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2265698428969445</v>
+        <v>0.229538724738669</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2977250944107101</v>
+        <v>0.3044017938625525</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>306</v>
@@ -8723,19 +8723,19 @@
         <v>303420</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>275335</v>
+        <v>275402</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>333624</v>
+        <v>333986</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.263883407426537</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2394585557050365</v>
+        <v>0.2395161888058527</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.290152017892279</v>
+        <v>0.2904665369083811</v>
       </c>
     </row>
     <row r="13">
@@ -8752,19 +8752,19 @@
         <v>42996</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31594</v>
+        <v>32274</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55148</v>
+        <v>56126</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07333690723634877</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05388882137191201</v>
+        <v>0.05504927217463626</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09406422406867132</v>
+        <v>0.09573209273947453</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -8773,19 +8773,19 @@
         <v>43749</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32976</v>
+        <v>31769</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56823</v>
+        <v>57200</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07763147923006765</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05851583913477301</v>
+        <v>0.0563731873345551</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1008315441583624</v>
+        <v>0.1015002462831007</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>85</v>
@@ -8794,19 +8794,19 @@
         <v>86745</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>70720</v>
+        <v>68795</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>106090</v>
+        <v>104968</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07544173227541852</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06150473162605997</v>
+        <v>0.0598307401939112</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09226627030772633</v>
+        <v>0.09129037206445707</v>
       </c>
     </row>
     <row r="14">
@@ -8823,19 +8823,19 @@
         <v>76717</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>61397</v>
+        <v>61943</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>94691</v>
+        <v>94902</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1308538261550522</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1047223399880543</v>
+        <v>0.1056547438584522</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1615120663538113</v>
+        <v>0.1618706289776821</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>102</v>
@@ -8844,19 +8844,19 @@
         <v>101592</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>85550</v>
+        <v>86459</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>121438</v>
+        <v>124273</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1802731952473972</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1518067109695178</v>
+        <v>0.1534193735494245</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2154906242497066</v>
+        <v>0.2205203503443197</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>177</v>
@@ -8865,19 +8865,19 @@
         <v>178309</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>152837</v>
+        <v>154621</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>202494</v>
+        <v>203944</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1550748953635166</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1329221245197523</v>
+        <v>0.1344732746844913</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1761083062816869</v>
+        <v>0.1773693676098532</v>
       </c>
     </row>
     <row r="15">
@@ -8969,19 +8969,19 @@
         <v>162690</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>140844</v>
+        <v>139985</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>185812</v>
+        <v>186148</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2446172395292333</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2117697717394064</v>
+        <v>0.210477943338699</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2793834586785194</v>
+        <v>0.279888265875848</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>165</v>
@@ -8990,19 +8990,19 @@
         <v>165661</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>144165</v>
+        <v>144678</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>187744</v>
+        <v>187723</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.251760130780549</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2190927166250379</v>
+        <v>0.2198720371493852</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2853198711592491</v>
+        <v>0.2852886276780494</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>316</v>
@@ -9011,19 +9011,19 @@
         <v>328351</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>298115</v>
+        <v>297899</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>358574</v>
+        <v>362098</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2481696025975697</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2253172666501833</v>
+        <v>0.2251541011438785</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2710125127064261</v>
+        <v>0.273675526704011</v>
       </c>
     </row>
     <row r="17">
@@ -9040,19 +9040,19 @@
         <v>212689</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>191109</v>
+        <v>187969</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>239940</v>
+        <v>236754</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.319795135936712</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2873479646795765</v>
+        <v>0.2826264646248406</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3607682789679064</v>
+        <v>0.3559781536355941</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>211</v>
@@ -9061,19 +9061,19 @@
         <v>210723</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>188032</v>
+        <v>187792</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>234830</v>
+        <v>234727</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3202420876105723</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2857580228008244</v>
+        <v>0.2853928358187969</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3568790596157309</v>
+        <v>0.3567219187169553</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>412</v>
@@ -9082,19 +9082,19 @@
         <v>423412</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>391643</v>
+        <v>387034</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>459372</v>
+        <v>458198</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3200174177220129</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2960057723658668</v>
+        <v>0.292522801508111</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.347196411116693</v>
+        <v>0.346308567092214</v>
       </c>
     </row>
     <row r="18">
@@ -9111,19 +9111,19 @@
         <v>177590</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>155499</v>
+        <v>155128</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>201089</v>
+        <v>202949</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2670209627211396</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2338050843657463</v>
+        <v>0.2332467098215071</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3023537772860349</v>
+        <v>0.3051499674703312</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>154</v>
@@ -9132,19 +9132,19 @@
         <v>149386</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>129609</v>
+        <v>129294</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>171625</v>
+        <v>170764</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2270263348178313</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.196971581042836</v>
+        <v>0.1964914398800444</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2608241610639926</v>
+        <v>0.2595154633035253</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>327</v>
@@ -9153,19 +9153,19 @@
         <v>326976</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>294622</v>
+        <v>298459</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>358479</v>
+        <v>361358</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2471304962284013</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2226771381878837</v>
+        <v>0.2255767004808407</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2709405479159707</v>
+        <v>0.2731166852160471</v>
       </c>
     </row>
     <row r="19">
@@ -9182,19 +9182,19 @@
         <v>41008</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>30670</v>
+        <v>29436</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>56595</v>
+        <v>55048</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06165906420988352</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04611503488027704</v>
+        <v>0.04426006575219584</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0850948207947594</v>
+        <v>0.08276950803341582</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -9203,19 +9203,19 @@
         <v>31963</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22469</v>
+        <v>22533</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>44820</v>
+        <v>43713</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04857484278664075</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03414745470196027</v>
+        <v>0.03424482929023832</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06811465684308955</v>
+        <v>0.06643229649635161</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>72</v>
@@ -9224,19 +9224,19 @@
         <v>72971</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>57837</v>
+        <v>57609</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>90927</v>
+        <v>89648</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05515190858808936</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04371371319204512</v>
+        <v>0.04354141167711562</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06872344686237038</v>
+        <v>0.06775613587320516</v>
       </c>
     </row>
     <row r="20">
@@ -9253,19 +9253,19 @@
         <v>71102</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>56549</v>
+        <v>56319</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>88734</v>
+        <v>88516</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1069075976030316</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08502633993178879</v>
+        <v>0.08468055946472169</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1334190339688332</v>
+        <v>0.1330902188299114</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>100</v>
@@ -9274,19 +9274,19 @@
         <v>100279</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>84610</v>
+        <v>83977</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>121105</v>
+        <v>119349</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1523966040044067</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1285847286517658</v>
+        <v>0.1276218650375039</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1840466379980716</v>
+        <v>0.1813781924674834</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>169</v>
@@ -9295,19 +9295,19 @@
         <v>171381</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>149634</v>
+        <v>147228</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>197676</v>
+        <v>196967</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1295305748639268</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1130941863483158</v>
+        <v>0.1112755469948218</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1494045600355646</v>
+        <v>0.1488688066297805</v>
       </c>
     </row>
     <row r="21">
@@ -9399,19 +9399,19 @@
         <v>163858</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>141246</v>
+        <v>141468</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>186247</v>
+        <v>187559</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.253630872775725</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2186314851022352</v>
+        <v>0.2189742325285278</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2882866583964847</v>
+        <v>0.2903169434994659</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>139</v>
@@ -9420,19 +9420,19 @@
         <v>149775</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>126614</v>
+        <v>129205</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>172887</v>
+        <v>172748</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2318645538286466</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1960094853341391</v>
+        <v>0.200020276295123</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.267644955309283</v>
+        <v>0.2674288792449573</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>286</v>
@@ -9441,19 +9441,19 @@
         <v>313632</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>281976</v>
+        <v>284078</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>347233</v>
+        <v>350818</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2427484772290038</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2182468540061797</v>
+        <v>0.2198732845857398</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2687553230172322</v>
+        <v>0.2715298867720991</v>
       </c>
     </row>
     <row r="23">
@@ -9470,19 +9470,19 @@
         <v>212140</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>187856</v>
+        <v>187968</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>237316</v>
+        <v>238228</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3283655765134427</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2907774326883616</v>
+        <v>0.2909505471103755</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3673343464705655</v>
+        <v>0.3687469806659511</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>190</v>
@@ -9491,19 +9491,19 @@
         <v>204748</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>181213</v>
+        <v>179964</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>229009</v>
+        <v>228094</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3169677154248186</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2805332490170932</v>
+        <v>0.2785994834668548</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3545261590691934</v>
+        <v>0.3531094582946805</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>380</v>
@@ -9512,19 +9512,19 @@
         <v>416888</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>382946</v>
+        <v>382493</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>452354</v>
+        <v>455187</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3226670459968879</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2963966705352511</v>
+        <v>0.2960458113348057</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3501176634684174</v>
+        <v>0.352310355708072</v>
       </c>
     </row>
     <row r="24">
@@ -9541,19 +9541,19 @@
         <v>149788</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>126940</v>
+        <v>128744</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>171002</v>
+        <v>175033</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2318521343448934</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1964867039687649</v>
+        <v>0.1992793999871306</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2646900022420915</v>
+        <v>0.2709290498285772</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>133</v>
@@ -9562,19 +9562,19 @@
         <v>141736</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>121966</v>
+        <v>119846</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>164698</v>
+        <v>163148</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2194195829341461</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1888145018051176</v>
+        <v>0.1855320781768321</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2549671447174977</v>
+        <v>0.2525668836473041</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>270</v>
@@ -9583,19 +9583,19 @@
         <v>291523</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>260715</v>
+        <v>262289</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>325491</v>
+        <v>326911</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2256362949815333</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2017912047243547</v>
+        <v>0.2030087497524019</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2519270753795085</v>
+        <v>0.2530261012982204</v>
       </c>
     </row>
     <row r="25">
@@ -9612,19 +9612,19 @@
         <v>31648</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22210</v>
+        <v>21966</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44015</v>
+        <v>44954</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04898782129538905</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03437838441907456</v>
+        <v>0.03400001374731327</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06812897643792526</v>
+        <v>0.06958266196568501</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -9633,19 +9633,19 @@
         <v>38863</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27149</v>
+        <v>28104</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>52600</v>
+        <v>52907</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06016275998443824</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04202839993067236</v>
+        <v>0.04350786694224393</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08142993000657535</v>
+        <v>0.08190544737793282</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>65</v>
@@ -9654,19 +9654,19 @@
         <v>70511</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>55885</v>
+        <v>55123</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>87986</v>
+        <v>88930</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05457489843600566</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04325429917845535</v>
+        <v>0.04266485783237833</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06810033380119844</v>
+        <v>0.06883107721884683</v>
       </c>
     </row>
     <row r="26">
@@ -9683,19 +9683,19 @@
         <v>88614</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>70545</v>
+        <v>71866</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>107010</v>
+        <v>107708</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1371635950705499</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1091946492231966</v>
+        <v>0.1112387743281395</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1656383956978427</v>
+        <v>0.1667188528321524</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>101</v>
@@ -9704,19 +9704,19 @@
         <v>110837</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>90801</v>
+        <v>91553</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>131097</v>
+        <v>131781</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1715853878279505</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1405685200031458</v>
+        <v>0.1417314219861657</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2029501126730345</v>
+        <v>0.2040082651161967</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>180</v>
@@ -9725,19 +9725,19 @@
         <v>199451</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>174280</v>
+        <v>170582</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>229721</v>
+        <v>226330</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1543732833565693</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1348909948652544</v>
+        <v>0.1320288917989821</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1778016102142049</v>
+        <v>0.1751774049471015</v>
       </c>
     </row>
     <row r="27">
@@ -9829,19 +9829,19 @@
         <v>114928</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>97204</v>
+        <v>95838</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>135423</v>
+        <v>135937</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.240963359375627</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2038018816528026</v>
+        <v>0.2009373902663093</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2839325574483841</v>
+        <v>0.2850100370673306</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>124</v>
@@ -9850,19 +9850,19 @@
         <v>140483</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>122020</v>
+        <v>120607</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>162396</v>
+        <v>162962</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2840149902693852</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.246688227600485</v>
+        <v>0.2438323780111128</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3283178008747167</v>
+        <v>0.3294617750240705</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>226</v>
@@ -9871,19 +9871,19 @@
         <v>255411</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>228734</v>
+        <v>226518</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>285039</v>
+        <v>286329</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2628808125696876</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2354236881509073</v>
+        <v>0.2331420709351779</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2933754157849909</v>
+        <v>0.2947026669710304</v>
       </c>
     </row>
     <row r="29">
@@ -9900,19 +9900,19 @@
         <v>159095</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>140351</v>
+        <v>138999</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>183021</v>
+        <v>181051</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3335646845872384</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2942650149851459</v>
+        <v>0.2914312152318305</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3837293909919561</v>
+        <v>0.3795990787654552</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>115</v>
@@ -9921,19 +9921,19 @@
         <v>131124</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>108938</v>
+        <v>111681</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>151400</v>
+        <v>151365</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2650948796429321</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2202403700597969</v>
+        <v>0.2257872976107813</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3060862907417409</v>
+        <v>0.3060152348500472</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>255</v>
@@ -9942,19 +9942,19 @@
         <v>290219</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>262189</v>
+        <v>262833</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>321805</v>
+        <v>320635</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2987069169738198</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2698567027854183</v>
+        <v>0.2705198029786482</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3312161398935451</v>
+        <v>0.3300117964111946</v>
       </c>
     </row>
     <row r="30">
@@ -9971,19 +9971,19 @@
         <v>103750</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>87061</v>
+        <v>87809</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>122838</v>
+        <v>125425</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.217526091016639</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1825351738668267</v>
+        <v>0.1841032898598258</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2575466067601112</v>
+        <v>0.262971831318872</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>74</v>
@@ -9992,19 +9992,19 @@
         <v>86482</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>69707</v>
+        <v>70379</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>104882</v>
+        <v>107625</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1748414359110978</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1409278352993375</v>
+        <v>0.1422863475539224</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2120416526022294</v>
+        <v>0.2175865812298458</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>169</v>
@@ -10013,19 +10013,19 @@
         <v>190232</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>166179</v>
+        <v>165954</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>219127</v>
+        <v>218895</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1957954640703795</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1710393386190238</v>
+        <v>0.1708073978260672</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2255348617535968</v>
+        <v>0.2252966607863107</v>
       </c>
     </row>
     <row r="31">
@@ -10042,19 +10042,19 @@
         <v>20396</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>12658</v>
+        <v>13013</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>32055</v>
+        <v>31471</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04276246650862031</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02653960090133364</v>
+        <v>0.0272826025159748</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06720790458205039</v>
+        <v>0.06598264087804874</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>31</v>
@@ -10063,19 +10063,19 @@
         <v>34496</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>24340</v>
+        <v>24200</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>48404</v>
+        <v>47006</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06973998479545823</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04920782722441212</v>
+        <v>0.04892515190527891</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09785944382652847</v>
+        <v>0.09503246792242021</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>50</v>
@@ -10084,19 +10084,19 @@
         <v>54891</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>42693</v>
+        <v>41110</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>70793</v>
+        <v>72863</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.056496638294187</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04394114768030084</v>
+        <v>0.04231198349872878</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07286329703817433</v>
+        <v>0.07499362461794468</v>
       </c>
     </row>
     <row r="32">
@@ -10113,19 +10113,19 @@
         <v>78785</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>62111</v>
+        <v>63174</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>96900</v>
+        <v>99197</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1651833985118752</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.130223833358626</v>
+        <v>0.1324537220960625</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2031643244795012</v>
+        <v>0.2079805474535517</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>87</v>
@@ -10134,19 +10134,19 @@
         <v>102047</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>84059</v>
+        <v>83843</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>122586</v>
+        <v>121349</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2063087093811266</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1699422357256864</v>
+        <v>0.1695062927664737</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2478339009084483</v>
+        <v>0.2453330064219702</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>154</v>
@@ -10155,19 +10155,19 @@
         <v>180832</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>155675</v>
+        <v>154417</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>209743</v>
+        <v>207734</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.186120168091926</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1602281152723943</v>
+        <v>0.1589332666054866</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2158767824954413</v>
+        <v>0.2138090333486393</v>
       </c>
     </row>
     <row r="33">
@@ -10259,19 +10259,19 @@
         <v>108018</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>91901</v>
+        <v>93245</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>125171</v>
+        <v>127873</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3241300305222859</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2757688556853052</v>
+        <v>0.2798008853665149</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3756032611232633</v>
+        <v>0.3837110256811886</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>79</v>
@@ -10280,19 +10280,19 @@
         <v>83934</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>68771</v>
+        <v>67996</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>101931</v>
+        <v>102269</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2227852575278335</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1825366914055772</v>
+        <v>0.1804803984052566</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2705539254017112</v>
+        <v>0.2714501203451168</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>182</v>
@@ -10301,19 +10301,19 @@
         <v>191952</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>168304</v>
+        <v>169786</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>215553</v>
+        <v>216465</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2703534065240329</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2370465037971133</v>
+        <v>0.2391345334164766</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3035945653469054</v>
+        <v>0.3048780635842902</v>
       </c>
     </row>
     <row r="35">
@@ -10330,19 +10330,19 @@
         <v>101704</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>86546</v>
+        <v>84010</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>118993</v>
+        <v>117837</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3051845650798523</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2596996185655528</v>
+        <v>0.252090680019683</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3570654274634643</v>
+        <v>0.3535946832812564</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>124</v>
@@ -10351,19 +10351,19 @@
         <v>134470</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>115526</v>
+        <v>117026</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>152413</v>
+        <v>152452</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3569206029587792</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3066375740640348</v>
+        <v>0.3106189209375617</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4045479761142503</v>
+        <v>0.4046507481096185</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>225</v>
@@ -10372,19 +10372,19 @@
         <v>236174</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>209906</v>
+        <v>212931</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>262238</v>
+        <v>263164</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.332637282906027</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2956408623341905</v>
+        <v>0.2999005652848389</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3693471666003597</v>
+        <v>0.3706514391129416</v>
       </c>
     </row>
     <row r="36">
@@ -10401,19 +10401,19 @@
         <v>45140</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>33751</v>
+        <v>33738</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>60316</v>
+        <v>58024</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.135453520510798</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1012757951704328</v>
+        <v>0.1012377128808728</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1809911457228828</v>
+        <v>0.1741121547855627</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>41</v>
@@ -10422,19 +10422,19 @@
         <v>43737</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>31928</v>
+        <v>31597</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>59083</v>
+        <v>57507</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1160891976809739</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08474558460148364</v>
+        <v>0.08386724636567673</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.156822264336938</v>
+        <v>0.1526402092454493</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>85</v>
@@ -10443,19 +10443,19 @@
         <v>88877</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>72700</v>
+        <v>72495</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>108355</v>
+        <v>108021</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1251782208872324</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1023935426161502</v>
+        <v>0.1021053809048959</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1526118960875016</v>
+        <v>0.1521418491858791</v>
       </c>
     </row>
     <row r="37">
@@ -10472,19 +10472,19 @@
         <v>11914</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>6344</v>
+        <v>6885</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>20620</v>
+        <v>19886</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03574936251493294</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01903523133474772</v>
+        <v>0.02065962941096944</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06187464569230255</v>
+        <v>0.05967125275187538</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>20</v>
@@ -10493,19 +10493,19 @@
         <v>21301</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>13526</v>
+        <v>13451</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>31898</v>
+        <v>32390</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05653853170700208</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03590294478185573</v>
+        <v>0.03570331035041682</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08466677150060094</v>
+        <v>0.0859716779330815</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>32</v>
@@ -10514,19 +10514,19 @@
         <v>33215</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>23926</v>
+        <v>23259</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>46285</v>
+        <v>44622</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04678072902595334</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03369821529259784</v>
+        <v>0.0327593544095161</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06518920761627475</v>
+        <v>0.06284780510487882</v>
       </c>
     </row>
     <row r="38">
@@ -10543,19 +10543,19 @@
         <v>66478</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>52391</v>
+        <v>51408</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>82255</v>
+        <v>81723</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1994825213721309</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1572091773905162</v>
+        <v>0.1542597998415079</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2468231459960958</v>
+        <v>0.2452266190990321</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>89</v>
@@ -10564,19 +10564,19 @@
         <v>93308</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>78573</v>
+        <v>76684</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>111066</v>
+        <v>110921</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2476664101254113</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2085545939845592</v>
+        <v>0.2035411264000475</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.294800115093114</v>
+        <v>0.2944142987004488</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>153</v>
@@ -10585,19 +10585,19 @@
         <v>159787</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>137626</v>
+        <v>137605</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>181377</v>
+        <v>181299</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2250503606567544</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1938388692424038</v>
+        <v>0.1938091632920184</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.255459243918423</v>
+        <v>0.2553488547839513</v>
       </c>
     </row>
     <row r="39">
@@ -10689,19 +10689,19 @@
         <v>73791</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>61406</v>
+        <v>62277</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>87556</v>
+        <v>87666</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2880969767389071</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2397454854672798</v>
+        <v>0.2431457667332272</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3418392864292488</v>
+        <v>0.3422719078609258</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>92</v>
@@ -10710,19 +10710,19 @@
         <v>124719</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>103892</v>
+        <v>103332</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>145308</v>
+        <v>145120</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3126577586048901</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2604483923664561</v>
+        <v>0.2590434835598492</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3642723709830629</v>
+        <v>0.3638031263488214</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>180</v>
@@ -10731,19 +10731,19 @@
         <v>198509</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>174632</v>
+        <v>175420</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>223611</v>
+        <v>225793</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3030539351297018</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2666021027263688</v>
+        <v>0.2678044633963102</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3413763644777775</v>
+        <v>0.3447061861097018</v>
       </c>
     </row>
     <row r="41">
@@ -10760,19 +10760,19 @@
         <v>76251</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>65496</v>
+        <v>63288</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>92251</v>
+        <v>90661</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2977034526611608</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2557115757753017</v>
+        <v>0.2470939748752031</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3601709561285854</v>
+        <v>0.3539629426543529</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>72</v>
@@ -10781,19 +10781,19 @@
         <v>95649</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>76300</v>
+        <v>77751</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>114879</v>
+        <v>116209</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2397833942402276</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1912771123372742</v>
+        <v>0.1949134140322219</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2879915211800701</v>
+        <v>0.2913261485954217</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>164</v>
@@ -10802,19 +10802,19 @@
         <v>171900</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>148878</v>
+        <v>147003</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>195503</v>
+        <v>194774</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2624314524243058</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.227285160087779</v>
+        <v>0.2244221748057013</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2984648495804043</v>
+        <v>0.297351013904601</v>
       </c>
     </row>
     <row r="42">
@@ -10831,19 +10831,19 @@
         <v>29427</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>21988</v>
+        <v>20885</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>39465</v>
+        <v>40254</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1148915296648764</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.08584701911143131</v>
+        <v>0.0815390400112266</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1540827281761336</v>
+        <v>0.1571607946685565</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>21</v>
@@ -10852,19 +10852,19 @@
         <v>27150</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>18070</v>
+        <v>17785</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>38336</v>
+        <v>42113</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.06806225696608689</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.04530047958112163</v>
+        <v>0.04458644247958406</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.09610351674833205</v>
+        <v>0.1055732976567981</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>56</v>
@@ -10873,19 +10873,19 @@
         <v>56577</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>43810</v>
+        <v>44304</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>72598</v>
+        <v>73497</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.08637356606547371</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.06688268808346487</v>
+        <v>0.06763699413517105</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1108322308710334</v>
+        <v>0.1122041316912065</v>
       </c>
     </row>
     <row r="43">
@@ -10902,19 +10902,19 @@
         <v>12279</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>6811</v>
+        <v>6960</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>20871</v>
+        <v>20705</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04794007528050124</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02659381280639846</v>
+        <v>0.02717518531372753</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.08148711703056138</v>
+        <v>0.08083736467001115</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>16</v>
@@ -10923,19 +10923,19 @@
         <v>21541</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>12948</v>
+        <v>12888</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>34975</v>
+        <v>34133</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.05400188635569455</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03245959973568179</v>
+        <v>0.03230907115337216</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.08767935451147155</v>
+        <v>0.08556749171840151</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>29</v>
@@ -10944,19 +10944,19 @@
         <v>33820</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>23487</v>
+        <v>22842</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>49073</v>
+        <v>48342</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.05163158056397509</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03585606728138121</v>
+        <v>0.03487114392002073</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.07491718419069586</v>
+        <v>0.07380144820711884</v>
       </c>
     </row>
     <row r="44">
@@ -10973,19 +10973,19 @@
         <v>64383</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>52604</v>
+        <v>52148</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>77600</v>
+        <v>77019</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2513679656545544</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2053790635858525</v>
+        <v>0.2035979726228456</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3029706732815168</v>
+        <v>0.3007022927120679</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>99</v>
@@ -10994,19 +10994,19 @@
         <v>129839</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>111573</v>
+        <v>109994</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>151119</v>
+        <v>151951</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3254947038331009</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2797019145474868</v>
+        <v>0.2757456107973804</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3788412276103788</v>
+        <v>0.3809267852877971</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>172</v>
@@ -11015,19 +11015,19 @@
         <v>194222</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>169314</v>
+        <v>170830</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>219170</v>
+        <v>222276</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2965094658165436</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2584829917748956</v>
+        <v>0.2607974311200969</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3345957039599679</v>
+        <v>0.3393382272467999</v>
       </c>
     </row>
     <row r="45">
@@ -11119,19 +11119,19 @@
         <v>827746</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>773566</v>
+        <v>777758</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>878826</v>
+        <v>879721</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2448896101748455</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2288602954374765</v>
+        <v>0.2301005055685395</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2600014628562927</v>
+        <v>0.2602664292117862</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>773</v>
@@ -11140,19 +11140,19 @@
         <v>836508</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>783924</v>
+        <v>786625</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>888616</v>
+        <v>893485</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2368337832902307</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2219461595392566</v>
+        <v>0.2227108929235471</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2515868370400283</v>
+        <v>0.2529652871604153</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1551</v>
@@ -11161,19 +11161,19 @@
         <v>1664254</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1599917</v>
+        <v>1594794</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1738852</v>
+        <v>1739256</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.240773141247316</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2314652532013382</v>
+        <v>0.2307240929232033</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2515654084242414</v>
+        <v>0.2516238527418382</v>
       </c>
     </row>
     <row r="47">
@@ -11190,19 +11190,19 @@
         <v>1099168</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1042433</v>
+        <v>1044079</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1157133</v>
+        <v>1158794</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3251899424854646</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.3084049137453907</v>
+        <v>0.3088917377871964</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3423390375765948</v>
+        <v>0.3428302598402806</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1009</v>
@@ -11211,19 +11211,19 @@
         <v>1064999</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1010885</v>
+        <v>1012136</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1125201</v>
+        <v>1118257</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3015245537309994</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2862038461891314</v>
+        <v>0.2865581214760406</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3185691165014534</v>
+        <v>0.3166030439768813</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>2059</v>
@@ -11232,19 +11232,19 @@
         <v>2164167</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2088095</v>
+        <v>2083005</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>2242658</v>
+        <v>2245201</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3130971010104681</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.3020915528226418</v>
+        <v>0.3013551233139621</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3244526379076623</v>
+        <v>0.3248205677086388</v>
       </c>
     </row>
     <row r="48">
@@ -11261,19 +11261,19 @@
         <v>771951</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>727069</v>
+        <v>722987</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>817697</v>
+        <v>823358</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2283823766680283</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2151040937185178</v>
+        <v>0.2138964972420921</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2419164034631486</v>
+        <v>0.2435912234292945</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>688</v>
@@ -11282,19 +11282,19 @@
         <v>701839</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>657367</v>
+        <v>655039</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>751521</v>
+        <v>748532</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1987060213038796</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1861150146952146</v>
+        <v>0.1854559146094205</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2127722274824492</v>
+        <v>0.2119257768952005</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1426</v>
@@ -11303,19 +11303,19 @@
         <v>1473790</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1403470</v>
+        <v>1408609</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1542384</v>
+        <v>1546699</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2132179749885248</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.203044585050355</v>
+        <v>0.2037881011623495</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2231417080903532</v>
+        <v>0.2237660079612778</v>
       </c>
     </row>
     <row r="49">
@@ -11332,19 +11332,19 @@
         <v>189007</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>162652</v>
+        <v>160421</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>218832</v>
+        <v>217095</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.05591799243909092</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.04812063662334719</v>
+        <v>0.04746065426071819</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.06474159315213794</v>
+        <v>0.06422770181357999</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>213</v>
@@ -11353,19 +11353,19 @@
         <v>226186</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>200006</v>
+        <v>197824</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>259775</v>
+        <v>256475</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.06403809643152156</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.05662618697555713</v>
+        <v>0.05600830743003543</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.07354801316418914</v>
+        <v>0.07261374388111821</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>393</v>
@@ -11374,19 +11374,19 @@
         <v>415193</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>373439</v>
+        <v>378604</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>453941</v>
+        <v>456271</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.0600673065010635</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.05402664036411392</v>
+        <v>0.05477383261369601</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.06567316186433106</v>
+        <v>0.06601028364960813</v>
       </c>
     </row>
     <row r="50">
@@ -11403,19 +11403,19 @@
         <v>492208</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>454306</v>
+        <v>451400</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>537243</v>
+        <v>535329</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1456200782325707</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1344069573517311</v>
+        <v>0.1335471780678536</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1589439555127739</v>
+        <v>0.158377567052046</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>644</v>
@@ -11424,19 +11424,19 @@
         <v>702515</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>652718</v>
+        <v>654432</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>750596</v>
+        <v>748654</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1988975452433687</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1847989192356581</v>
+        <v>0.1852840204911865</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2125101732815007</v>
+        <v>0.2119603747334969</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1115</v>
@@ -11445,19 +11445,19 @@
         <v>1194723</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1132403</v>
+        <v>1126909</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1256099</v>
+        <v>1255533</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1728444762526276</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1638284883997823</v>
+        <v>0.1630336169183305</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1817239138775853</v>
+        <v>0.1816420364802077</v>
       </c>
     </row>
     <row r="51">
